--- a/Documentos/Rubrica1/ModeloLogico.xlsx
+++ b/Documentos/Rubrica1/ModeloLogico.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707D4EDC-6E6D-4F5A-BA95-A8DB837ADEAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="93">
   <si>
     <t>JUEGO</t>
   </si>
@@ -170,12 +176,144 @@
   <si>
     <t>Atributo3</t>
   </si>
+  <si>
+    <t>COND_SALUD</t>
+  </si>
+  <si>
+    <t>alergia</t>
+  </si>
+  <si>
+    <t>E_C</t>
+  </si>
+  <si>
+    <t>id_Cond</t>
+  </si>
+  <si>
+    <t>id_Emp</t>
+  </si>
+  <si>
+    <t>EMPLEADO</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Fecha_Nac</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Tipo_Sangre</t>
+  </si>
+  <si>
+    <t>id_Pais</t>
+  </si>
+  <si>
+    <t>Check(M,F,T)</t>
+  </si>
+  <si>
+    <t>Check(O+,A+,B+,AB+,O-,A-,B-AB-)</t>
+  </si>
+  <si>
+    <t>E_P</t>
+  </si>
+  <si>
+    <t>id_Profesion</t>
+  </si>
+  <si>
+    <t>id_Empleado</t>
+  </si>
+  <si>
+    <t>PROFESION</t>
+  </si>
+  <si>
+    <t>AMONESTACION</t>
+  </si>
+  <si>
+    <t>FALTA</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>id_Asis</t>
+  </si>
+  <si>
+    <t>id_Amo</t>
+  </si>
+  <si>
+    <t>Horas_Faltantes</t>
+  </si>
+  <si>
+    <t>REUNION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>ASISTENCIA</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>id_Reunion</t>
+  </si>
+  <si>
+    <t>id_Empleo</t>
+  </si>
+  <si>
+    <t>EMPLEO</t>
+  </si>
+  <si>
+    <t>Fecha_Inicio</t>
+  </si>
+  <si>
+    <t>Fecha_Fin</t>
+  </si>
+  <si>
+    <t>id_Cargo</t>
+  </si>
+  <si>
+    <t>id_Dep</t>
+  </si>
+  <si>
+    <t>FK3</t>
+  </si>
+  <si>
+    <t>HIST_SALARIO</t>
+  </si>
+  <si>
+    <t>fecha_inicio</t>
+  </si>
+  <si>
+    <t>fecha_fin</t>
+  </si>
+  <si>
+    <t>id_salario</t>
+  </si>
+  <si>
+    <t>id_empleo</t>
+  </si>
+  <si>
+    <t>SALARIO</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +362,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,7 +378,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -256,6 +401,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -272,7 +426,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,8 +441,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,48 +752,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:18" ht="15">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,7 +832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -689,7 +866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -707,7 +884,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -723,7 +900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -737,7 +914,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -771,7 +948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -785,7 +962,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -799,33 +976,33 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -865,7 +1042,7 @@
       </c>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -905,7 +1082,7 @@
       </c>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -931,7 +1108,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -953,7 +1130,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -971,7 +1148,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1188,7 @@
       </c>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1025,7 +1202,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1039,29 +1216,29 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="16">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -1083,15 +1260,15 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1298,7 @@
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1320,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1159,7 +1336,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="26">
+    <row r="24" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>25</v>
@@ -1177,7 +1354,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1207,7 +1384,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1223,7 +1400,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1237,29 +1414,29 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="16">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="6"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -1291,7 +1468,7 @@
       </c>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1500,7 @@
       </c>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1349,7 +1526,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>15</v>
@@ -1369,7 +1546,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1385,7 +1562,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1417,7 +1594,7 @@
       </c>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1433,7 +1610,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1447,15 +1624,15 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:14" ht="16">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1463,7 +1640,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:14" ht="16">
+    <row r="38" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
@@ -1487,13 +1664,13 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M38" s="6"/>
+      <c r="M38" s="10"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>3</v>
       </c>
@@ -1523,7 +1700,7 @@
       </c>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
@@ -1549,7 +1726,7 @@
       </c>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1571,7 +1748,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1587,7 +1764,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
@@ -1614,8 +1791,11 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1634,8 +1814,11 @@
         <v>6</v>
       </c>
       <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1650,106 +1833,196 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="F46" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="F47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="F48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="F49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="F52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1762,8 +2035,13 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1776,106 +2054,234 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="K55" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="K56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="K57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="K58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="4"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="K61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1888,8 +2294,13 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1902,106 +2313,214 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A64" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="10"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="E64" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="H64" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="E65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="H65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="E66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="4"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="H66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="4"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="E67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="4"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="H67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="E70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="H70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2014,8 +2533,13 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2028,106 +2552,198 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="10"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="E73" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+      <c r="E74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="E75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="4"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="E76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
+      <c r="E79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2140,8 +2756,13 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2154,106 +2775,224 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="H82" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
+      <c r="H83" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="8"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="H84" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="H85" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86" s="8"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
       <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
+      <c r="H88" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2266,8 +3005,13 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2280,9 +3024,16 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -2294,9 +3045,16 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -2308,9 +3066,16 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -2322,9 +3087,16 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -2336,9 +3108,14 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -2350,9 +3127,14 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -2364,9 +3146,16 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -2378,8 +3167,13 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2392,8 +3186,13 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2406,8 +3205,13 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2420,8 +3224,13 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2434,8 +3243,13 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2448,8 +3262,13 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2462,8 +3281,13 @@
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2476,8 +3300,13 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2490,8 +3319,13 @@
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2504,8 +3338,13 @@
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2518,8 +3357,13 @@
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2532,8 +3376,13 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2546,8 +3395,13 @@
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2560,8 +3414,13 @@
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2574,8 +3433,13 @@
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2588,8 +3452,13 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2602,8 +3471,13 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2616,8 +3490,13 @@
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2630,8 +3509,13 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2644,8 +3528,13 @@
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2658,8 +3547,13 @@
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2672,8 +3566,13 @@
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2686,8 +3585,13 @@
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2700,8 +3604,13 @@
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2714,8 +3623,13 @@
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2728,8 +3642,13 @@
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2742,8 +3661,13 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2756,8 +3680,13 @@
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2770,8 +3699,13 @@
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2784,8 +3718,13 @@
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2798,8 +3737,13 @@
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2812,8 +3756,13 @@
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2826,8 +3775,13 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2840,8 +3794,13 @@
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2854,8 +3813,13 @@
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2868,8 +3832,13 @@
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2882,8 +3851,13 @@
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2896,8 +3870,13 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2910,8 +3889,13 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2924,8 +3908,13 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2938,8 +3927,13 @@
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2952,8 +3946,13 @@
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2966,8 +3965,13 @@
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2980,8 +3984,13 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2994,8 +4003,13 @@
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3008,8 +4022,13 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3022,8 +4041,13 @@
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
-    </row>
-    <row r="144" spans="1:12">
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3036,8 +4060,13 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
-    </row>
-    <row r="145" spans="1:12">
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3"/>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3050,8 +4079,13 @@
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
-    </row>
-    <row r="146" spans="1:12">
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3"/>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3064,8 +4098,13 @@
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
-    </row>
-    <row r="147" spans="1:12">
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3078,8 +4117,13 @@
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
-    </row>
-    <row r="148" spans="1:12">
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3092,8 +4136,13 @@
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
-    </row>
-    <row r="149" spans="1:12">
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3106,8 +4155,13 @@
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
-    </row>
-    <row r="150" spans="1:12">
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3120,8 +4174,13 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
-    </row>
-    <row r="151" spans="1:12">
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3134,8 +4193,13 @@
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
-    </row>
-    <row r="152" spans="1:12">
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3148,8 +4212,13 @@
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
-    </row>
-    <row r="153" spans="1:12">
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3162,8 +4231,13 @@
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
-    </row>
-    <row r="154" spans="1:12">
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3176,8 +4250,13 @@
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
-    </row>
-    <row r="155" spans="1:12">
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3"/>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3190,8 +4269,13 @@
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
-    </row>
-    <row r="156" spans="1:12">
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3204,8 +4288,13 @@
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
-    </row>
-    <row r="157" spans="1:12">
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3218,8 +4307,13 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
-    </row>
-    <row r="158" spans="1:12">
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3232,8 +4326,13 @@
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
-    </row>
-    <row r="159" spans="1:12">
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3246,8 +4345,13 @@
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
-    </row>
-    <row r="160" spans="1:12">
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3260,8 +4364,13 @@
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
-    </row>
-    <row r="161" spans="1:12">
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3274,8 +4383,13 @@
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
-    </row>
-    <row r="162" spans="1:12">
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3288,8 +4402,13 @@
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
-    </row>
-    <row r="163" spans="1:12">
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3302,8 +4421,13 @@
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
-    </row>
-    <row r="164" spans="1:12">
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -3316,8 +4440,13 @@
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
-    </row>
-    <row r="165" spans="1:12">
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -3330,8 +4459,13 @@
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
-    </row>
-    <row r="166" spans="1:12">
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -3344,8 +4478,13 @@
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
-    </row>
-    <row r="167" spans="1:12">
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -3358,8 +4497,13 @@
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
-    </row>
-    <row r="168" spans="1:12">
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -3372,8 +4516,13 @@
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
-    </row>
-    <row r="169" spans="1:12">
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -3386,8 +4535,13 @@
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
-    </row>
-    <row r="170" spans="1:12">
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -3400,8 +4554,13 @@
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
-    </row>
-    <row r="171" spans="1:12">
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -3414,8 +4573,13 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
-    </row>
-    <row r="172" spans="1:12">
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -3428,8 +4592,13 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
-    </row>
-    <row r="173" spans="1:12">
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -3442,8 +4611,13 @@
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
-    </row>
-    <row r="174" spans="1:12">
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
+      <c r="Q173" s="3"/>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3456,8 +4630,13 @@
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
-    </row>
-    <row r="175" spans="1:12">
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -3470,8 +4649,13 @@
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
-    </row>
-    <row r="176" spans="1:12">
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
+      <c r="Q175" s="3"/>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -3484,8 +4668,13 @@
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
-    </row>
-    <row r="177" spans="1:12">
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
+      <c r="Q176" s="3"/>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -3498,8 +4687,13 @@
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
-    </row>
-    <row r="178" spans="1:12">
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3"/>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -3512,8 +4706,13 @@
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
-    </row>
-    <row r="179" spans="1:12">
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
+      <c r="Q178" s="3"/>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -3526,8 +4725,13 @@
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
-    </row>
-    <row r="180" spans="1:12">
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
+      <c r="O179" s="3"/>
+      <c r="P179" s="3"/>
+      <c r="Q179" s="3"/>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -3540,8 +4744,13 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
-    </row>
-    <row r="181" spans="1:12">
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="3"/>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -3554,8 +4763,13 @@
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
-    </row>
-    <row r="182" spans="1:12">
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
+      <c r="O181" s="3"/>
+      <c r="P181" s="3"/>
+      <c r="Q181" s="3"/>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -3568,8 +4782,13 @@
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
-    </row>
-    <row r="183" spans="1:12">
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="3"/>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -3582,8 +4801,13 @@
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
-    </row>
-    <row r="184" spans="1:12">
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -3596,8 +4820,13 @@
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
-    </row>
-    <row r="185" spans="1:12">
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3"/>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -3610,8 +4839,13 @@
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
-    </row>
-    <row r="186" spans="1:12">
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="3"/>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -3624,8 +4858,13 @@
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
-    </row>
-    <row r="187" spans="1:12">
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3"/>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -3639,7 +4878,7 @@
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -3653,7 +4892,7 @@
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -3667,7 +4906,7 @@
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -3681,7 +4920,7 @@
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -3695,7 +4934,7 @@
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -3709,7 +4948,7 @@
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -3723,7 +4962,7 @@
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -3737,7 +4976,7 @@
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -3751,7 +4990,7 @@
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -3765,7 +5004,7 @@
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -3779,7 +5018,7 @@
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -3793,7 +5032,7 @@
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -3807,7 +5046,7 @@
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -3821,7 +5060,7 @@
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -3835,7 +5074,7 @@
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -3849,7 +5088,7 @@
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -3863,7 +5102,7 @@
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -3877,7 +5116,7 @@
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -3891,7 +5130,7 @@
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -3905,7 +5144,7 @@
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -3919,7 +5158,7 @@
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3933,7 +5172,7 @@
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3947,7 +5186,7 @@
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -3961,7 +5200,7 @@
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -3975,7 +5214,7 @@
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -3989,7 +5228,7 @@
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -4003,7 +5242,7 @@
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -4017,7 +5256,7 @@
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -4031,7 +5270,7 @@
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -4045,7 +5284,7 @@
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -4059,7 +5298,7 @@
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -4073,7 +5312,7 @@
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -4087,7 +5326,7 @@
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -4101,7 +5340,7 @@
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -4115,7 +5354,7 @@
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -4129,7 +5368,7 @@
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -4143,7 +5382,7 @@
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -4157,7 +5396,7 @@
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -4171,7 +5410,7 @@
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -4185,7 +5424,7 @@
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -4199,7 +5438,7 @@
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -4213,7 +5452,7 @@
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -4227,7 +5466,7 @@
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -4241,7 +5480,7 @@
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -4255,7 +5494,7 @@
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -4269,7 +5508,7 @@
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -4283,7 +5522,7 @@
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -4297,7 +5536,7 @@
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -4311,7 +5550,7 @@
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -4325,7 +5564,7 @@
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -4339,7 +5578,7 @@
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -4353,7 +5592,7 @@
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -4367,7 +5606,7 @@
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -4381,7 +5620,7 @@
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -4395,7 +5634,7 @@
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -4409,7 +5648,7 @@
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -4423,7 +5662,7 @@
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -4437,7 +5676,7 @@
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -4451,7 +5690,7 @@
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -4465,7 +5704,7 @@
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -4479,7 +5718,7 @@
       <c r="K247" s="3"/>
       <c r="L247" s="3"/>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -4493,7 +5732,7 @@
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -4507,7 +5746,7 @@
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -4521,7 +5760,7 @@
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -4535,7 +5774,7 @@
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -4549,7 +5788,7 @@
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -4563,7 +5802,7 @@
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -4577,7 +5816,7 @@
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -4591,7 +5830,7 @@
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -4605,7 +5844,7 @@
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -4619,7 +5858,7 @@
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -4633,7 +5872,7 @@
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -4647,7 +5886,7 @@
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -4661,7 +5900,7 @@
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -4675,7 +5914,7 @@
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -4689,7 +5928,7 @@
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -4703,7 +5942,7 @@
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -4717,7 +5956,7 @@
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -4731,7 +5970,7 @@
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -4745,7 +5984,7 @@
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -4759,7 +5998,7 @@
       <c r="K267" s="3"/>
       <c r="L267" s="3"/>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -4773,7 +6012,7 @@
       <c r="K268" s="3"/>
       <c r="L268" s="3"/>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -4787,7 +6026,7 @@
       <c r="K269" s="3"/>
       <c r="L269" s="3"/>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -4801,7 +6040,7 @@
       <c r="K270" s="3"/>
       <c r="L270" s="3"/>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -4815,7 +6054,7 @@
       <c r="K271" s="3"/>
       <c r="L271" s="3"/>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -4829,7 +6068,7 @@
       <c r="K272" s="3"/>
       <c r="L272" s="3"/>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -4843,7 +6082,7 @@
       <c r="K273" s="3"/>
       <c r="L273" s="3"/>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -4857,7 +6096,7 @@
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -4871,7 +6110,7 @@
       <c r="K275" s="3"/>
       <c r="L275" s="3"/>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -4885,7 +6124,7 @@
       <c r="K276" s="3"/>
       <c r="L276" s="3"/>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -4899,7 +6138,7 @@
       <c r="K277" s="3"/>
       <c r="L277" s="3"/>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -4913,7 +6152,7 @@
       <c r="K278" s="3"/>
       <c r="L278" s="3"/>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -4927,7 +6166,7 @@
       <c r="K279" s="3"/>
       <c r="L279" s="3"/>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -4941,7 +6180,7 @@
       <c r="K280" s="3"/>
       <c r="L280" s="3"/>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -4955,7 +6194,7 @@
       <c r="K281" s="3"/>
       <c r="L281" s="3"/>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -4969,7 +6208,7 @@
       <c r="K282" s="3"/>
       <c r="L282" s="3"/>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -4983,7 +6222,7 @@
       <c r="K283" s="3"/>
       <c r="L283" s="3"/>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -4997,7 +6236,7 @@
       <c r="K284" s="3"/>
       <c r="L284" s="3"/>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -5011,7 +6250,7 @@
       <c r="K285" s="3"/>
       <c r="L285" s="3"/>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -5025,7 +6264,7 @@
       <c r="K286" s="3"/>
       <c r="L286" s="3"/>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -5039,7 +6278,7 @@
       <c r="K287" s="3"/>
       <c r="L287" s="3"/>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -5053,7 +6292,7 @@
       <c r="K288" s="3"/>
       <c r="L288" s="3"/>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -5067,7 +6306,7 @@
       <c r="K289" s="3"/>
       <c r="L289" s="3"/>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -5081,7 +6320,7 @@
       <c r="K290" s="3"/>
       <c r="L290" s="3"/>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -5095,7 +6334,7 @@
       <c r="K291" s="3"/>
       <c r="L291" s="3"/>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -5109,7 +6348,7 @@
       <c r="K292" s="3"/>
       <c r="L292" s="3"/>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -5123,7 +6362,7 @@
       <c r="K293" s="3"/>
       <c r="L293" s="3"/>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -5137,7 +6376,7 @@
       <c r="K294" s="3"/>
       <c r="L294" s="3"/>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -5151,7 +6390,7 @@
       <c r="K295" s="3"/>
       <c r="L295" s="3"/>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -5165,7 +6404,7 @@
       <c r="K296" s="3"/>
       <c r="L296" s="3"/>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -5179,7 +6418,7 @@
       <c r="K297" s="3"/>
       <c r="L297" s="3"/>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -5193,7 +6432,7 @@
       <c r="K298" s="3"/>
       <c r="L298" s="3"/>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -5207,7 +6446,7 @@
       <c r="K299" s="3"/>
       <c r="L299" s="3"/>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -5221,7 +6460,7 @@
       <c r="K300" s="3"/>
       <c r="L300" s="3"/>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -5235,7 +6474,7 @@
       <c r="K301" s="3"/>
       <c r="L301" s="3"/>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -5249,7 +6488,7 @@
       <c r="K302" s="3"/>
       <c r="L302" s="3"/>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -5263,7 +6502,7 @@
       <c r="K303" s="3"/>
       <c r="L303" s="3"/>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -5277,7 +6516,7 @@
       <c r="K304" s="3"/>
       <c r="L304" s="3"/>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -5291,7 +6530,7 @@
       <c r="K305" s="3"/>
       <c r="L305" s="3"/>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -5305,7 +6544,7 @@
       <c r="K306" s="3"/>
       <c r="L306" s="3"/>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -5319,7 +6558,7 @@
       <c r="K307" s="3"/>
       <c r="L307" s="3"/>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -5333,7 +6572,7 @@
       <c r="K308" s="3"/>
       <c r="L308" s="3"/>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -5347,7 +6586,7 @@
       <c r="K309" s="3"/>
       <c r="L309" s="3"/>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -5361,7 +6600,7 @@
       <c r="K310" s="3"/>
       <c r="L310" s="3"/>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -5375,7 +6614,7 @@
       <c r="K311" s="3"/>
       <c r="L311" s="3"/>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -5389,7 +6628,7 @@
       <c r="K312" s="3"/>
       <c r="L312" s="3"/>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -5403,7 +6642,7 @@
       <c r="K313" s="3"/>
       <c r="L313" s="3"/>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -5417,7 +6656,7 @@
       <c r="K314" s="3"/>
       <c r="L314" s="3"/>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -5431,7 +6670,7 @@
       <c r="K315" s="3"/>
       <c r="L315" s="3"/>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -5445,7 +6684,7 @@
       <c r="K316" s="3"/>
       <c r="L316" s="3"/>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -5459,7 +6698,7 @@
       <c r="K317" s="3"/>
       <c r="L317" s="3"/>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -5473,7 +6712,7 @@
       <c r="K318" s="3"/>
       <c r="L318" s="3"/>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -5487,7 +6726,7 @@
       <c r="K319" s="3"/>
       <c r="L319" s="3"/>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -5501,7 +6740,7 @@
       <c r="K320" s="3"/>
       <c r="L320" s="3"/>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -5515,7 +6754,7 @@
       <c r="K321" s="3"/>
       <c r="L321" s="3"/>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -5529,7 +6768,7 @@
       <c r="K322" s="3"/>
       <c r="L322" s="3"/>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -5543,7 +6782,7 @@
       <c r="K323" s="3"/>
       <c r="L323" s="3"/>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -5557,7 +6796,7 @@
       <c r="K324" s="3"/>
       <c r="L324" s="3"/>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -5571,7 +6810,7 @@
       <c r="K325" s="3"/>
       <c r="L325" s="3"/>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -5585,7 +6824,7 @@
       <c r="K326" s="3"/>
       <c r="L326" s="3"/>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -5599,7 +6838,7 @@
       <c r="K327" s="3"/>
       <c r="L327" s="3"/>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -5613,7 +6852,7 @@
       <c r="K328" s="3"/>
       <c r="L328" s="3"/>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -5627,7 +6866,7 @@
       <c r="K329" s="3"/>
       <c r="L329" s="3"/>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -5641,7 +6880,7 @@
       <c r="K330" s="3"/>
       <c r="L330" s="3"/>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -5655,7 +6894,7 @@
       <c r="K331" s="3"/>
       <c r="L331" s="3"/>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -5669,7 +6908,7 @@
       <c r="K332" s="3"/>
       <c r="L332" s="3"/>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -5683,7 +6922,7 @@
       <c r="K333" s="3"/>
       <c r="L333" s="3"/>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -5697,7 +6936,7 @@
       <c r="K334" s="3"/>
       <c r="L334" s="3"/>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -5711,7 +6950,7 @@
       <c r="K335" s="3"/>
       <c r="L335" s="3"/>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -5725,7 +6964,7 @@
       <c r="K336" s="3"/>
       <c r="L336" s="3"/>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -5739,7 +6978,7 @@
       <c r="K337" s="3"/>
       <c r="L337" s="3"/>
     </row>
-    <row r="338" spans="1:12">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -5753,7 +6992,7 @@
       <c r="K338" s="3"/>
       <c r="L338" s="3"/>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -5767,7 +7006,7 @@
       <c r="K339" s="3"/>
       <c r="L339" s="3"/>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -5781,7 +7020,7 @@
       <c r="K340" s="3"/>
       <c r="L340" s="3"/>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -5795,7 +7034,7 @@
       <c r="K341" s="3"/>
       <c r="L341" s="3"/>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -5809,7 +7048,7 @@
       <c r="K342" s="3"/>
       <c r="L342" s="3"/>
     </row>
-    <row r="343" spans="1:12">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -5823,7 +7062,7 @@
       <c r="K343" s="3"/>
       <c r="L343" s="3"/>
     </row>
-    <row r="344" spans="1:12">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -5837,7 +7076,7 @@
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
     </row>
-    <row r="345" spans="1:12">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -5851,7 +7090,7 @@
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -5865,7 +7104,7 @@
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -5879,7 +7118,7 @@
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
     </row>
-    <row r="348" spans="1:12">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -5893,7 +7132,7 @@
       <c r="K348" s="3"/>
       <c r="L348" s="3"/>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -5907,7 +7146,7 @@
       <c r="K349" s="3"/>
       <c r="L349" s="3"/>
     </row>
-    <row r="350" spans="1:12">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -5921,7 +7160,7 @@
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -5935,7 +7174,7 @@
       <c r="K351" s="3"/>
       <c r="L351" s="3"/>
     </row>
-    <row r="352" spans="1:12">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -5949,7 +7188,7 @@
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -5963,7 +7202,7 @@
       <c r="K353" s="3"/>
       <c r="L353" s="3"/>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -5977,7 +7216,7 @@
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -5991,7 +7230,7 @@
       <c r="K355" s="3"/>
       <c r="L355" s="3"/>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -6005,7 +7244,7 @@
       <c r="K356" s="3"/>
       <c r="L356" s="3"/>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -6019,7 +7258,7 @@
       <c r="K357" s="3"/>
       <c r="L357" s="3"/>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -6033,7 +7272,7 @@
       <c r="K358" s="3"/>
       <c r="L358" s="3"/>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -6047,7 +7286,7 @@
       <c r="K359" s="3"/>
       <c r="L359" s="3"/>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -6061,7 +7300,7 @@
       <c r="K360" s="3"/>
       <c r="L360" s="3"/>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -6075,7 +7314,7 @@
       <c r="K361" s="3"/>
       <c r="L361" s="3"/>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -6089,7 +7328,7 @@
       <c r="K362" s="3"/>
       <c r="L362" s="3"/>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -6103,7 +7342,7 @@
       <c r="K363" s="3"/>
       <c r="L363" s="3"/>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -6117,7 +7356,7 @@
       <c r="K364" s="3"/>
       <c r="L364" s="3"/>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -6131,7 +7370,7 @@
       <c r="K365" s="3"/>
       <c r="L365" s="3"/>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -6145,7 +7384,7 @@
       <c r="K366" s="3"/>
       <c r="L366" s="3"/>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -6159,7 +7398,7 @@
       <c r="K367" s="3"/>
       <c r="L367" s="3"/>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -6173,7 +7412,7 @@
       <c r="K368" s="3"/>
       <c r="L368" s="3"/>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -6187,7 +7426,7 @@
       <c r="K369" s="3"/>
       <c r="L369" s="3"/>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -6201,7 +7440,7 @@
       <c r="K370" s="3"/>
       <c r="L370" s="3"/>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -6215,7 +7454,7 @@
       <c r="K371" s="3"/>
       <c r="L371" s="3"/>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -6229,7 +7468,7 @@
       <c r="K372" s="3"/>
       <c r="L372" s="3"/>
     </row>
-    <row r="373" spans="1:12">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -6243,7 +7482,7 @@
       <c r="K373" s="3"/>
       <c r="L373" s="3"/>
     </row>
-    <row r="374" spans="1:12">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -6257,7 +7496,7 @@
       <c r="K374" s="3"/>
       <c r="L374" s="3"/>
     </row>
-    <row r="375" spans="1:12">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -6271,7 +7510,7 @@
       <c r="K375" s="3"/>
       <c r="L375" s="3"/>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -6285,7 +7524,7 @@
       <c r="K376" s="3"/>
       <c r="L376" s="3"/>
     </row>
-    <row r="377" spans="1:12">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -6299,7 +7538,7 @@
       <c r="K377" s="3"/>
       <c r="L377" s="3"/>
     </row>
-    <row r="378" spans="1:12">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -6313,7 +7552,7 @@
       <c r="K378" s="3"/>
       <c r="L378" s="3"/>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -6327,7 +7566,7 @@
       <c r="K379" s="3"/>
       <c r="L379" s="3"/>
     </row>
-    <row r="380" spans="1:12">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -6341,7 +7580,7 @@
       <c r="K380" s="3"/>
       <c r="L380" s="3"/>
     </row>
-    <row r="381" spans="1:12">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -6355,7 +7594,7 @@
       <c r="K381" s="3"/>
       <c r="L381" s="3"/>
     </row>
-    <row r="382" spans="1:12">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -6369,7 +7608,7 @@
       <c r="K382" s="3"/>
       <c r="L382" s="3"/>
     </row>
-    <row r="383" spans="1:12">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -6383,7 +7622,7 @@
       <c r="K383" s="3"/>
       <c r="L383" s="3"/>
     </row>
-    <row r="384" spans="1:12">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -6397,7 +7636,7 @@
       <c r="K384" s="3"/>
       <c r="L384" s="3"/>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -6411,7 +7650,7 @@
       <c r="K385" s="3"/>
       <c r="L385" s="3"/>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -6425,7 +7664,7 @@
       <c r="K386" s="3"/>
       <c r="L386" s="3"/>
     </row>
-    <row r="387" spans="1:12">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -6439,7 +7678,7 @@
       <c r="K387" s="3"/>
       <c r="L387" s="3"/>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -6453,7 +7692,7 @@
       <c r="K388" s="3"/>
       <c r="L388" s="3"/>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -6467,7 +7706,7 @@
       <c r="K389" s="3"/>
       <c r="L389" s="3"/>
     </row>
-    <row r="390" spans="1:12">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -6481,7 +7720,7 @@
       <c r="K390" s="3"/>
       <c r="L390" s="3"/>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -6495,7 +7734,7 @@
       <c r="K391" s="3"/>
       <c r="L391" s="3"/>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -6509,7 +7748,7 @@
       <c r="K392" s="3"/>
       <c r="L392" s="3"/>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -6523,7 +7762,7 @@
       <c r="K393" s="3"/>
       <c r="L393" s="3"/>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -6537,7 +7776,7 @@
       <c r="K394" s="3"/>
       <c r="L394" s="3"/>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -6551,7 +7790,7 @@
       <c r="K395" s="3"/>
       <c r="L395" s="3"/>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -6565,7 +7804,7 @@
       <c r="K396" s="3"/>
       <c r="L396" s="3"/>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -6579,7 +7818,7 @@
       <c r="K397" s="3"/>
       <c r="L397" s="3"/>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -6593,7 +7832,7 @@
       <c r="K398" s="3"/>
       <c r="L398" s="3"/>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -6607,7 +7846,7 @@
       <c r="K399" s="3"/>
       <c r="L399" s="3"/>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -6621,7 +7860,7 @@
       <c r="K400" s="3"/>
       <c r="L400" s="3"/>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -6635,7 +7874,7 @@
       <c r="K401" s="3"/>
       <c r="L401" s="3"/>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -6649,7 +7888,7 @@
       <c r="K402" s="3"/>
       <c r="L402" s="3"/>
     </row>
-    <row r="403" spans="1:12">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -6663,7 +7902,7 @@
       <c r="K403" s="3"/>
       <c r="L403" s="3"/>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -6677,7 +7916,7 @@
       <c r="K404" s="3"/>
       <c r="L404" s="3"/>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -6691,7 +7930,7 @@
       <c r="K405" s="3"/>
       <c r="L405" s="3"/>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -6705,7 +7944,7 @@
       <c r="K406" s="3"/>
       <c r="L406" s="3"/>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -6719,7 +7958,7 @@
       <c r="K407" s="3"/>
       <c r="L407" s="3"/>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -6733,7 +7972,7 @@
       <c r="K408" s="3"/>
       <c r="L408" s="3"/>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -6747,7 +7986,7 @@
       <c r="K409" s="3"/>
       <c r="L409" s="3"/>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -6761,7 +8000,7 @@
       <c r="K410" s="3"/>
       <c r="L410" s="3"/>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -6775,7 +8014,7 @@
       <c r="K411" s="3"/>
       <c r="L411" s="3"/>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -6789,7 +8028,7 @@
       <c r="K412" s="3"/>
       <c r="L412" s="3"/>
     </row>
-    <row r="413" spans="1:12">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -6803,7 +8042,7 @@
       <c r="K413" s="3"/>
       <c r="L413" s="3"/>
     </row>
-    <row r="414" spans="1:12">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -6817,7 +8056,7 @@
       <c r="K414" s="3"/>
       <c r="L414" s="3"/>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -6831,7 +8070,7 @@
       <c r="K415" s="3"/>
       <c r="L415" s="3"/>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -6845,7 +8084,7 @@
       <c r="K416" s="3"/>
       <c r="L416" s="3"/>
     </row>
-    <row r="417" spans="1:12">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -6859,7 +8098,7 @@
       <c r="K417" s="3"/>
       <c r="L417" s="3"/>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -6873,7 +8112,7 @@
       <c r="K418" s="3"/>
       <c r="L418" s="3"/>
     </row>
-    <row r="419" spans="1:12">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -6887,7 +8126,7 @@
       <c r="K419" s="3"/>
       <c r="L419" s="3"/>
     </row>
-    <row r="420" spans="1:12">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -6901,7 +8140,7 @@
       <c r="K420" s="3"/>
       <c r="L420" s="3"/>
     </row>
-    <row r="421" spans="1:12">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -6915,7 +8154,7 @@
       <c r="K421" s="3"/>
       <c r="L421" s="3"/>
     </row>
-    <row r="422" spans="1:12">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -6929,7 +8168,7 @@
       <c r="K422" s="3"/>
       <c r="L422" s="3"/>
     </row>
-    <row r="423" spans="1:12">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -6943,7 +8182,7 @@
       <c r="K423" s="3"/>
       <c r="L423" s="3"/>
     </row>
-    <row r="424" spans="1:12">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -6957,7 +8196,7 @@
       <c r="K424" s="3"/>
       <c r="L424" s="3"/>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -6971,7 +8210,7 @@
       <c r="K425" s="3"/>
       <c r="L425" s="3"/>
     </row>
-    <row r="426" spans="1:12">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -6985,7 +8224,7 @@
       <c r="K426" s="3"/>
       <c r="L426" s="3"/>
     </row>
-    <row r="427" spans="1:12">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -6999,7 +8238,7 @@
       <c r="K427" s="3"/>
       <c r="L427" s="3"/>
     </row>
-    <row r="428" spans="1:12">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -7013,7 +8252,7 @@
       <c r="K428" s="3"/>
       <c r="L428" s="3"/>
     </row>
-    <row r="429" spans="1:12">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -7027,7 +8266,7 @@
       <c r="K429" s="3"/>
       <c r="L429" s="3"/>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -7041,7 +8280,7 @@
       <c r="K430" s="3"/>
       <c r="L430" s="3"/>
     </row>
-    <row r="431" spans="1:12">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -7055,7 +8294,7 @@
       <c r="K431" s="3"/>
       <c r="L431" s="3"/>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -7069,7 +8308,7 @@
       <c r="K432" s="3"/>
       <c r="L432" s="3"/>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -7083,7 +8322,7 @@
       <c r="K433" s="3"/>
       <c r="L433" s="3"/>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -7097,7 +8336,7 @@
       <c r="K434" s="3"/>
       <c r="L434" s="3"/>
     </row>
-    <row r="435" spans="1:12">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -7111,7 +8350,7 @@
       <c r="K435" s="3"/>
       <c r="L435" s="3"/>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -7125,7 +8364,7 @@
       <c r="K436" s="3"/>
       <c r="L436" s="3"/>
     </row>
-    <row r="437" spans="1:12">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -7139,7 +8378,7 @@
       <c r="K437" s="3"/>
       <c r="L437" s="3"/>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -7153,7 +8392,7 @@
       <c r="K438" s="3"/>
       <c r="L438" s="3"/>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -7167,7 +8406,7 @@
       <c r="K439" s="3"/>
       <c r="L439" s="3"/>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -7181,7 +8420,7 @@
       <c r="K440" s="3"/>
       <c r="L440" s="3"/>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -7195,7 +8434,7 @@
       <c r="K441" s="3"/>
       <c r="L441" s="3"/>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -7209,7 +8448,7 @@
       <c r="K442" s="3"/>
       <c r="L442" s="3"/>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -7223,7 +8462,7 @@
       <c r="K443" s="3"/>
       <c r="L443" s="3"/>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -7237,7 +8476,7 @@
       <c r="K444" s="3"/>
       <c r="L444" s="3"/>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -7251,7 +8490,7 @@
       <c r="K445" s="3"/>
       <c r="L445" s="3"/>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -7265,7 +8504,7 @@
       <c r="K446" s="3"/>
       <c r="L446" s="3"/>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -7279,7 +8518,7 @@
       <c r="K447" s="3"/>
       <c r="L447" s="3"/>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -7293,7 +8532,7 @@
       <c r="K448" s="3"/>
       <c r="L448" s="3"/>
     </row>
-    <row r="449" spans="1:12">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -7307,7 +8546,7 @@
       <c r="K449" s="3"/>
       <c r="L449" s="3"/>
     </row>
-    <row r="450" spans="1:12">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -7321,7 +8560,7 @@
       <c r="K450" s="3"/>
       <c r="L450" s="3"/>
     </row>
-    <row r="451" spans="1:12">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -7335,7 +8574,7 @@
       <c r="K451" s="3"/>
       <c r="L451" s="3"/>
     </row>
-    <row r="452" spans="1:12">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -7349,7 +8588,7 @@
       <c r="K452" s="3"/>
       <c r="L452" s="3"/>
     </row>
-    <row r="453" spans="1:12">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -7363,7 +8602,7 @@
       <c r="K453" s="3"/>
       <c r="L453" s="3"/>
     </row>
-    <row r="454" spans="1:12">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -7377,7 +8616,7 @@
       <c r="K454" s="3"/>
       <c r="L454" s="3"/>
     </row>
-    <row r="455" spans="1:12">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -7391,7 +8630,7 @@
       <c r="K455" s="3"/>
       <c r="L455" s="3"/>
     </row>
-    <row r="456" spans="1:12">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -7405,7 +8644,7 @@
       <c r="K456" s="3"/>
       <c r="L456" s="3"/>
     </row>
-    <row r="457" spans="1:12">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -7419,7 +8658,7 @@
       <c r="K457" s="3"/>
       <c r="L457" s="3"/>
     </row>
-    <row r="458" spans="1:12">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -7433,7 +8672,7 @@
       <c r="K458" s="3"/>
       <c r="L458" s="3"/>
     </row>
-    <row r="459" spans="1:12">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -7447,7 +8686,7 @@
       <c r="K459" s="3"/>
       <c r="L459" s="3"/>
     </row>
-    <row r="460" spans="1:12">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -7461,7 +8700,7 @@
       <c r="K460" s="3"/>
       <c r="L460" s="3"/>
     </row>
-    <row r="461" spans="1:12">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -7475,7 +8714,7 @@
       <c r="K461" s="3"/>
       <c r="L461" s="3"/>
     </row>
-    <row r="462" spans="1:12">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -7489,7 +8728,7 @@
       <c r="K462" s="3"/>
       <c r="L462" s="3"/>
     </row>
-    <row r="463" spans="1:12">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -7503,7 +8742,7 @@
       <c r="K463" s="3"/>
       <c r="L463" s="3"/>
     </row>
-    <row r="464" spans="1:12">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -7517,7 +8756,7 @@
       <c r="K464" s="3"/>
       <c r="L464" s="3"/>
     </row>
-    <row r="465" spans="1:12">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -7531,7 +8770,7 @@
       <c r="K465" s="3"/>
       <c r="L465" s="3"/>
     </row>
-    <row r="466" spans="1:12">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -7545,7 +8784,7 @@
       <c r="K466" s="3"/>
       <c r="L466" s="3"/>
     </row>
-    <row r="467" spans="1:12">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -7559,7 +8798,7 @@
       <c r="K467" s="3"/>
       <c r="L467" s="3"/>
     </row>
-    <row r="468" spans="1:12">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -7573,7 +8812,7 @@
       <c r="K468" s="3"/>
       <c r="L468" s="3"/>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -7587,7 +8826,7 @@
       <c r="K469" s="3"/>
       <c r="L469" s="3"/>
     </row>
-    <row r="470" spans="1:12">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -7601,7 +8840,7 @@
       <c r="K470" s="3"/>
       <c r="L470" s="3"/>
     </row>
-    <row r="471" spans="1:12">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -7615,7 +8854,7 @@
       <c r="K471" s="3"/>
       <c r="L471" s="3"/>
     </row>
-    <row r="472" spans="1:12">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -7629,7 +8868,7 @@
       <c r="K472" s="3"/>
       <c r="L472" s="3"/>
     </row>
-    <row r="473" spans="1:12">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -7643,7 +8882,7 @@
       <c r="K473" s="3"/>
       <c r="L473" s="3"/>
     </row>
-    <row r="474" spans="1:12">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -7657,7 +8896,7 @@
       <c r="K474" s="3"/>
       <c r="L474" s="3"/>
     </row>
-    <row r="475" spans="1:12">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -7671,7 +8910,7 @@
       <c r="K475" s="3"/>
       <c r="L475" s="3"/>
     </row>
-    <row r="476" spans="1:12">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -7685,7 +8924,7 @@
       <c r="K476" s="3"/>
       <c r="L476" s="3"/>
     </row>
-    <row r="477" spans="1:12">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -7699,7 +8938,7 @@
       <c r="K477" s="3"/>
       <c r="L477" s="3"/>
     </row>
-    <row r="478" spans="1:12">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -7713,7 +8952,7 @@
       <c r="K478" s="3"/>
       <c r="L478" s="3"/>
     </row>
-    <row r="479" spans="1:12">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -7727,7 +8966,7 @@
       <c r="K479" s="3"/>
       <c r="L479" s="3"/>
     </row>
-    <row r="480" spans="1:12">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -7741,7 +8980,7 @@
       <c r="K480" s="3"/>
       <c r="L480" s="3"/>
     </row>
-    <row r="481" spans="1:12">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -7755,7 +8994,7 @@
       <c r="K481" s="3"/>
       <c r="L481" s="3"/>
     </row>
-    <row r="482" spans="1:12">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -7769,7 +9008,7 @@
       <c r="K482" s="3"/>
       <c r="L482" s="3"/>
     </row>
-    <row r="483" spans="1:12">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -7783,7 +9022,7 @@
       <c r="K483" s="3"/>
       <c r="L483" s="3"/>
     </row>
-    <row r="484" spans="1:12">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -7797,7 +9036,7 @@
       <c r="K484" s="3"/>
       <c r="L484" s="3"/>
     </row>
-    <row r="485" spans="1:12">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -7811,7 +9050,7 @@
       <c r="K485" s="3"/>
       <c r="L485" s="3"/>
     </row>
-    <row r="486" spans="1:12">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -7825,7 +9064,7 @@
       <c r="K486" s="3"/>
       <c r="L486" s="3"/>
     </row>
-    <row r="487" spans="1:12">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -7839,7 +9078,7 @@
       <c r="K487" s="3"/>
       <c r="L487" s="3"/>
     </row>
-    <row r="488" spans="1:12">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -7853,7 +9092,7 @@
       <c r="K488" s="3"/>
       <c r="L488" s="3"/>
     </row>
-    <row r="489" spans="1:12">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -7867,7 +9106,7 @@
       <c r="K489" s="3"/>
       <c r="L489" s="3"/>
     </row>
-    <row r="490" spans="1:12">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -7881,7 +9120,7 @@
       <c r="K490" s="3"/>
       <c r="L490" s="3"/>
     </row>
-    <row r="491" spans="1:12">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -7895,7 +9134,7 @@
       <c r="K491" s="3"/>
       <c r="L491" s="3"/>
     </row>
-    <row r="492" spans="1:12">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -7909,7 +9148,7 @@
       <c r="K492" s="3"/>
       <c r="L492" s="3"/>
     </row>
-    <row r="493" spans="1:12">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -7923,7 +9162,7 @@
       <c r="K493" s="3"/>
       <c r="L493" s="3"/>
     </row>
-    <row r="494" spans="1:12">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -7937,7 +9176,7 @@
       <c r="K494" s="3"/>
       <c r="L494" s="3"/>
     </row>
-    <row r="495" spans="1:12">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -7951,7 +9190,7 @@
       <c r="K495" s="3"/>
       <c r="L495" s="3"/>
     </row>
-    <row r="496" spans="1:12">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -7965,7 +9204,7 @@
       <c r="K496" s="3"/>
       <c r="L496" s="3"/>
     </row>
-    <row r="497" spans="1:12">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -7979,7 +9218,7 @@
       <c r="K497" s="3"/>
       <c r="L497" s="3"/>
     </row>
-    <row r="498" spans="1:12">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -7993,7 +9232,7 @@
       <c r="K498" s="3"/>
       <c r="L498" s="3"/>
     </row>
-    <row r="499" spans="1:12">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -8007,7 +9246,7 @@
       <c r="K499" s="3"/>
       <c r="L499" s="3"/>
     </row>
-    <row r="500" spans="1:12">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -8021,7 +9260,7 @@
       <c r="K500" s="3"/>
       <c r="L500" s="3"/>
     </row>
-    <row r="501" spans="1:12">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -8035,7 +9274,7 @@
       <c r="K501" s="3"/>
       <c r="L501" s="3"/>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -8049,7 +9288,7 @@
       <c r="K502" s="3"/>
       <c r="L502" s="3"/>
     </row>
-    <row r="503" spans="1:12">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -8063,7 +9302,7 @@
       <c r="K503" s="3"/>
       <c r="L503" s="3"/>
     </row>
-    <row r="504" spans="1:12">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -8077,7 +9316,7 @@
       <c r="K504" s="3"/>
       <c r="L504" s="3"/>
     </row>
-    <row r="505" spans="1:12">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -8091,7 +9330,7 @@
       <c r="K505" s="3"/>
       <c r="L505" s="3"/>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -8105,7 +9344,7 @@
       <c r="K506" s="3"/>
       <c r="L506" s="3"/>
     </row>
-    <row r="507" spans="1:12">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -8119,7 +9358,7 @@
       <c r="K507" s="3"/>
       <c r="L507" s="3"/>
     </row>
-    <row r="508" spans="1:12">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -8133,7 +9372,7 @@
       <c r="K508" s="3"/>
       <c r="L508" s="3"/>
     </row>
-    <row r="509" spans="1:12">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -8147,7 +9386,7 @@
       <c r="K509" s="3"/>
       <c r="L509" s="3"/>
     </row>
-    <row r="510" spans="1:12">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -8161,7 +9400,7 @@
       <c r="K510" s="3"/>
       <c r="L510" s="3"/>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -8175,7 +9414,7 @@
       <c r="K511" s="3"/>
       <c r="L511" s="3"/>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -8189,7 +9428,7 @@
       <c r="K512" s="3"/>
       <c r="L512" s="3"/>
     </row>
-    <row r="513" spans="1:12">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -8203,7 +9442,7 @@
       <c r="K513" s="3"/>
       <c r="L513" s="3"/>
     </row>
-    <row r="514" spans="1:12">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -8217,7 +9456,7 @@
       <c r="K514" s="3"/>
       <c r="L514" s="3"/>
     </row>
-    <row r="515" spans="1:12">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -8231,7 +9470,7 @@
       <c r="K515" s="3"/>
       <c r="L515" s="3"/>
     </row>
-    <row r="516" spans="1:12">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -8245,7 +9484,7 @@
       <c r="K516" s="3"/>
       <c r="L516" s="3"/>
     </row>
-    <row r="517" spans="1:12">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -8259,7 +9498,7 @@
       <c r="K517" s="3"/>
       <c r="L517" s="3"/>
     </row>
-    <row r="518" spans="1:12">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -8273,7 +9512,7 @@
       <c r="K518" s="3"/>
       <c r="L518" s="3"/>
     </row>
-    <row r="519" spans="1:12">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -8287,7 +9526,7 @@
       <c r="K519" s="3"/>
       <c r="L519" s="3"/>
     </row>
-    <row r="520" spans="1:12">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -8301,7 +9540,7 @@
       <c r="K520" s="3"/>
       <c r="L520" s="3"/>
     </row>
-    <row r="521" spans="1:12">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -8315,7 +9554,7 @@
       <c r="K521" s="3"/>
       <c r="L521" s="3"/>
     </row>
-    <row r="522" spans="1:12">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -8329,7 +9568,7 @@
       <c r="K522" s="3"/>
       <c r="L522" s="3"/>
     </row>
-    <row r="523" spans="1:12">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -8343,7 +9582,7 @@
       <c r="K523" s="3"/>
       <c r="L523" s="3"/>
     </row>
-    <row r="524" spans="1:12">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -8357,7 +9596,7 @@
       <c r="K524" s="3"/>
       <c r="L524" s="3"/>
     </row>
-    <row r="525" spans="1:12">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -8371,7 +9610,7 @@
       <c r="K525" s="3"/>
       <c r="L525" s="3"/>
     </row>
-    <row r="526" spans="1:12">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -8385,7 +9624,7 @@
       <c r="K526" s="3"/>
       <c r="L526" s="3"/>
     </row>
-    <row r="527" spans="1:12">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -8399,7 +9638,7 @@
       <c r="K527" s="3"/>
       <c r="L527" s="3"/>
     </row>
-    <row r="528" spans="1:12">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -8413,7 +9652,7 @@
       <c r="K528" s="3"/>
       <c r="L528" s="3"/>
     </row>
-    <row r="529" spans="1:12">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -8427,7 +9666,7 @@
       <c r="K529" s="3"/>
       <c r="L529" s="3"/>
     </row>
-    <row r="530" spans="1:12">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -8441,7 +9680,7 @@
       <c r="K530" s="3"/>
       <c r="L530" s="3"/>
     </row>
-    <row r="531" spans="1:12">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -8455,7 +9694,7 @@
       <c r="K531" s="3"/>
       <c r="L531" s="3"/>
     </row>
-    <row r="532" spans="1:12">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -8469,7 +9708,7 @@
       <c r="K532" s="3"/>
       <c r="L532" s="3"/>
     </row>
-    <row r="533" spans="1:12">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -8483,7 +9722,7 @@
       <c r="K533" s="3"/>
       <c r="L533" s="3"/>
     </row>
-    <row r="534" spans="1:12">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -8497,7 +9736,7 @@
       <c r="K534" s="3"/>
       <c r="L534" s="3"/>
     </row>
-    <row r="535" spans="1:12">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -8511,7 +9750,7 @@
       <c r="K535" s="3"/>
       <c r="L535" s="3"/>
     </row>
-    <row r="536" spans="1:12">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -8525,7 +9764,7 @@
       <c r="K536" s="3"/>
       <c r="L536" s="3"/>
     </row>
-    <row r="537" spans="1:12">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -8539,7 +9778,7 @@
       <c r="K537" s="3"/>
       <c r="L537" s="3"/>
     </row>
-    <row r="538" spans="1:12">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -8553,7 +9792,7 @@
       <c r="K538" s="3"/>
       <c r="L538" s="3"/>
     </row>
-    <row r="539" spans="1:12">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -8567,7 +9806,7 @@
       <c r="K539" s="3"/>
       <c r="L539" s="3"/>
     </row>
-    <row r="540" spans="1:12">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -8582,12 +9821,15 @@
       <c r="L540" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="L38:M38"/>
+  <mergeCells count="22">
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="A37:F37"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="H64:M64"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="A10:C10"/>
@@ -8595,10 +9837,16 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A55:H55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documentos/Rubrica1/ModeloLogico.xlsx
+++ b/Documentos/Rubrica1/ModeloLogico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezequiel\Documents\Drive\Proyectos\BDI\BD1Project2019\Documentos\Rubrica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF49746-1644-4E43-9FBC-218FC2B76DDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7113449-2DD3-4366-A824-73CA28F3DF73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="106">
   <si>
     <t>JUEGO</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>BONO</t>
+  </si>
+  <si>
+    <t>check('L','M','X','J','V','S','D')</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -497,13 +500,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -518,18 +515,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -824,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E12EE0C-E0DB-4E76-8473-B470BE6F41F1}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,13 +847,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -952,14 +959,14 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
@@ -1082,12 +1089,12 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
@@ -1198,10 +1205,10 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1294,108 +1301,96 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="6"/>
+      <c r="A35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="7"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="A39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="C39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G39" s="2"/>
@@ -1412,11 +1407,11 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1424,13 +1419,15 @@
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1438,11 +1435,13 @@
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1450,11 +1449,11 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1462,9 +1461,9 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1472,9 +1471,11 @@
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="7"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1482,13 +1483,15 @@
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1506,10 +1509,10 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="8"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1602,11 +1605,11 @@
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1698,10 +1701,10 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="8"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -1800,16 +1803,16 @@
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
@@ -1876,13 +1879,13 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
       <c r="H77" s="6" t="s">
         <v>13</v>
       </c>
@@ -1938,11 +1941,11 @@
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -2031,12 +2034,12 @@
     </row>
     <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
@@ -2108,13 +2111,13 @@
     </row>
     <row r="96" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
-      <c r="E97" s="17"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
@@ -2192,128 +2195,120 @@
     </row>
     <row r="104" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="105" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="17"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C106" s="6" t="s">
+      <c r="B106" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="C106" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="6" t="s">
+      <c r="A107" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
     </row>
     <row r="109" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6" t="s">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
     </row>
     <row r="111" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A111" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+    </row>
     <row r="113" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B113" s="17"/>
+      <c r="B113" s="14"/>
     </row>
     <row r="114" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115" s="6" t="s">
+      <c r="A115" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="6"/>
+      <c r="B116" s="7"/>
     </row>
     <row r="117" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
     </row>
     <row r="118" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
     </row>
     <row r="119" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="6" t="s">
+      <c r="A119" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="121" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B121" s="17"/>
+      <c r="B121" s="13"/>
     </row>
     <row r="122" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
@@ -2355,10 +2350,10 @@
     </row>
     <row r="128" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="129" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B129" s="17"/>
+      <c r="B129" s="13"/>
     </row>
     <row r="130" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
@@ -2401,23 +2396,23 @@
     <row r="136" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A129:B129"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A105:D105"/>
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A105:C105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -2442,24 +2437,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2"/>
@@ -2468,13 +2463,13 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
@@ -2483,42 +2478,42 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="2"/>
@@ -2536,14 +2531,14 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2654,11 +2649,11 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2748,11 +2743,11 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2850,10 +2845,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2938,24 +2933,24 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="2"/>
@@ -2964,13 +2959,13 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="A43" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="2"/>
@@ -2979,44 +2974,44 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="13"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="2"/>
@@ -3034,27 +3029,27 @@
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E50" s="2"/>
@@ -3062,16 +3057,16 @@
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="13" t="s">
+      <c r="A51" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="2"/>
@@ -3079,21 +3074,21 @@
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13" t="s">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="2"/>
@@ -3101,25 +3096,25 @@
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="13" t="s">
+      <c r="A55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E55" s="2"/>
@@ -3136,24 +3131,24 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="2"/>
@@ -3162,13 +3157,13 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="13" t="s">
+      <c r="A59" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="2"/>
@@ -3177,20 +3172,20 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13" t="s">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2"/>
@@ -3199,22 +3194,22 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="13" t="s">
+      <c r="A63" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="2"/>
@@ -3232,113 +3227,113 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" s="13" t="s">
+      <c r="A67" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13" t="s">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3370,10 +3365,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3426,17 +3421,17 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="2"/>
@@ -3482,11 +3477,11 @@
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -3551,38 +3546,38 @@
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="2"/>
@@ -3594,10 +3589,10 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Documentos/Rubrica1/ModeloLogico.xlsx
+++ b/Documentos/Rubrica1/ModeloLogico.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="647" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" tabRatio="647" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EMPLEADOS" sheetId="30" r:id="rId1"/>
@@ -13,18 +18,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="114">
   <si>
     <t>JUEGO</t>
   </si>
@@ -41,21 +46,12 @@
     <t>PK</t>
   </si>
   <si>
-    <t>varchar2</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
     <t>PIEZA</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Forma</t>
-  </si>
-  <si>
     <t>Tamano</t>
   </si>
   <si>
@@ -351,6 +347,30 @@
   </si>
   <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>FORMA</t>
+  </si>
+  <si>
+    <t>id_Forma</t>
+  </si>
+  <si>
+    <t>id_Material</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>id_Coleccion</t>
+  </si>
+  <si>
+    <t>FK4</t>
+  </si>
+  <si>
+    <t>id_Juego</t>
+  </si>
+  <si>
+    <t>FK5</t>
   </si>
 </sst>
 </file>
@@ -428,7 +448,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -497,6 +517,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -533,7 +566,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -573,30 +606,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -608,40 +638,58 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -912,7 +960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -923,53 +971,53 @@
   <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+    <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="2" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="3" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -985,7 +1033,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="4" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -997,19 +1045,19 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="5" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="6" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1019,27 +1067,27 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="7" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="8" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1049,41 +1097,41 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
+    <row r="9" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="10" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="11" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -1103,41 +1151,41 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="12" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="13" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="14" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1147,29 +1195,29 @@
       <c r="G14" s="2"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="15" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="16" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1179,37 +1227,37 @@
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A17" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="16"/>
+    <row r="17" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="18" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="19" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
@@ -1227,37 +1275,37 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="20" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="21" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="22" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1267,25 +1315,25 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="23" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="24" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1295,11 +1343,11 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A25" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="16"/>
+    <row r="25" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="20"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1307,12 +1355,12 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="26" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1321,7 +1369,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="27" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>3</v>
       </c>
@@ -1335,7 +1383,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="28" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>4</v>
       </c>
@@ -1347,7 +1395,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="29" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="2"/>
@@ -1357,7 +1405,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="30" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="2"/>
@@ -1367,12 +1415,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="31" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1381,7 +1429,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="32" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1391,38 +1439,38 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A33" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="16"/>
+    <row r="33" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="4"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="34" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>3</v>
       </c>
@@ -1435,7 +1483,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="36" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>4</v>
       </c>
@@ -1446,20 +1494,20 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="37" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="38" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1468,26 +1516,26 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="39" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="40" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1497,27 +1545,27 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A41" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="16"/>
+    <row r="41" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="42" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1525,7 +1573,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="43" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>3</v>
       </c>
@@ -1539,7 +1587,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="44" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>4</v>
       </c>
@@ -1551,7 +1599,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="45" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1561,10 +1609,10 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="46" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -1573,15 +1621,15 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="47" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1589,7 +1637,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="48" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1599,11 +1647,11 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A49" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="16"/>
+    <row r="49" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1611,12 +1659,12 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="50" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1625,7 +1673,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="51" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>3</v>
       </c>
@@ -1639,7 +1687,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="52" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>4</v>
       </c>
@@ -1651,7 +1699,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="53" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="2"/>
@@ -1661,7 +1709,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="54" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="2"/>
@@ -1671,12 +1719,12 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="55" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1685,7 +1733,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="56" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1695,11 +1743,11 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A57" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="24"/>
+    <row r="57" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="22"/>
       <c r="C57" s="8"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1707,12 +1755,12 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="58" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1720,7 +1768,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="59" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>3</v>
       </c>
@@ -1733,12 +1781,12 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="60" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -1746,12 +1794,12 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="61" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -1759,7 +1807,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="62" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="D62" s="2"/>
@@ -1768,12 +1816,12 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="63" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -1781,7 +1829,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="64" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1791,11 +1839,11 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A65" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="16"/>
+    <row r="65" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="20"/>
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -1803,12 +1851,12 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="66" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -1817,7 +1865,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="67" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>3</v>
       </c>
@@ -1831,12 +1879,12 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="68" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -1845,12 +1893,12 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="69" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -1859,7 +1907,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="70" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="2"/>
@@ -1869,12 +1917,12 @@
       <c r="G70" s="5"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="71" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
@@ -1883,7 +1931,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="72" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1893,45 +1941,45 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A73" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-    </row>
-    <row r="74" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="73" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+    </row>
+    <row r="74" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D74" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="H74" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    </row>
+    <row r="75" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>3</v>
       </c>
@@ -1957,7 +2005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="76" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +2017,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="77" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -1978,50 +2026,50 @@
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="18" thickTop="1" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="79" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="18" thickTop="1" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2031,27 +2079,27 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A81" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="16"/>
+    <row r="81" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="82" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2059,7 +2107,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="83" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>3</v>
       </c>
@@ -2075,7 +2123,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="84" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>4</v>
       </c>
@@ -2087,7 +2135,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="85" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2097,7 +2145,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="86" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2107,15 +2155,15 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="87" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2123,30 +2171,30 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" ht="16" thickTop="1" thickBot="1"/>
-    <row r="89" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A89" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="16"/>
-    </row>
-    <row r="90" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
+    </row>
+    <row r="90" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="18" thickTop="1" thickBot="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>3</v>
       </c>
@@ -2158,76 +2206,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="92" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="18" thickTop="1" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="18" thickTop="1" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="95" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="16" thickTop="1" thickBot="1"/>
-    <row r="97" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A97" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="16"/>
-    </row>
-    <row r="98" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="20"/>
+    </row>
+    <row r="98" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    </row>
+    <row r="99" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>3</v>
       </c>
@@ -2244,7 +2292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="100" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>4</v>
       </c>
@@ -2253,58 +2301,58 @@
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="101" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="102" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="103" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="16" thickTop="1" thickBot="1"/>
-    <row r="105" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A105" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" s="18"/>
-      <c r="C105" s="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" s="19"/>
+      <c r="C105" s="20"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="106" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>3</v>
       </c>
@@ -2315,56 +2363,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="108" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="109" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
     </row>
-    <row r="111" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="111" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="16" thickTop="1" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
     </row>
-    <row r="113" spans="1:2" ht="18" thickTop="1" thickBot="1">
-      <c r="A113" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B113" s="16"/>
-    </row>
-    <row r="114" spans="1:2" ht="18" thickTop="1" thickBot="1">
+    <row r="113" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B113" s="20"/>
+    </row>
+    <row r="114" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="18" thickTop="1" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>3</v>
       </c>
@@ -2372,44 +2420,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="18" thickTop="1" thickBot="1">
+    <row r="116" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="1:2" ht="18" thickTop="1" thickBot="1">
+    <row r="117" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="1:2" ht="18" thickTop="1" thickBot="1">
+    <row r="118" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="1:2" ht="18" thickTop="1" thickBot="1">
+    <row r="119" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="16" thickTop="1" thickBot="1"/>
-    <row r="121" spans="1:2" ht="18" thickTop="1" thickBot="1">
-      <c r="A121" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B121" s="16"/>
-    </row>
-    <row r="122" spans="1:2" ht="18" thickTop="1" thickBot="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B121" s="20"/>
+    </row>
+    <row r="122" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="18" thickTop="1" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>3</v>
       </c>
@@ -2417,44 +2465,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="18" thickTop="1" thickBot="1">
+    <row r="124" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B124" s="6"/>
     </row>
-    <row r="125" spans="1:2" ht="18" thickTop="1" thickBot="1">
+    <row r="125" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
     </row>
-    <row r="126" spans="1:2" ht="18" thickTop="1" thickBot="1">
+    <row r="126" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
     </row>
-    <row r="127" spans="1:2" ht="18" thickTop="1" thickBot="1">
+    <row r="127" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="16" thickTop="1" thickBot="1"/>
-    <row r="129" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A129" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B129" s="16"/>
-    </row>
-    <row r="130" spans="1:6" ht="18" thickTop="1" thickBot="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B129" s="20"/>
+    </row>
+    <row r="130" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="18" thickTop="1" thickBot="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>3</v>
       </c>
@@ -2462,53 +2510,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="18" thickTop="1" thickBot="1">
+    <row r="132" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B132" s="6"/>
     </row>
-    <row r="133" spans="1:6" ht="18" thickTop="1" thickBot="1">
+    <row r="133" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
     </row>
-    <row r="134" spans="1:6" ht="18" thickTop="1" thickBot="1">
+    <row r="134" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
     </row>
-    <row r="135" spans="1:6" ht="18" thickTop="1" thickBot="1">
+    <row r="135" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="16" thickTop="1" thickBot="1"/>
-    <row r="137" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A137" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="16"/>
-      <c r="F137" s="20"/>
-    </row>
-    <row r="138" spans="1:6" ht="18" thickTop="1" thickBot="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="20"/>
+      <c r="F137" s="15"/>
+    </row>
+    <row r="138" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="18" thickTop="1" thickBot="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
         <v>3</v>
       </c>
@@ -2520,81 +2568,83 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="18" thickTop="1" thickBot="1">
+    <row r="140" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="18" thickTop="1" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="18" thickTop="1" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
     </row>
-    <row r="143" spans="1:6" ht="18" thickTop="1" thickBot="1">
+    <row r="143" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" thickTop="1">
-      <c r="A144" s="20"/>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="20"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="20"/>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="20"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
-    </row>
-    <row r="155" spans="1:6" ht="16">
-      <c r="A155" s="22"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="20"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+    </row>
+    <row r="155" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="17"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A97:E97"/>
@@ -2602,13 +2652,11 @@
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
@@ -2622,48 +2670,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.83203125" customWidth="1"/>
+    <col min="1" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="6" width="22.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="20" thickTop="1" thickBot="1">
+    <row r="2" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -2678,7 +2728,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -2689,7 +2739,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2698,7 +2748,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="6" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2707,22 +2757,22 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="7" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="8" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2731,39 +2781,39 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+    <row r="9" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -2782,35 +2832,35 @@
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="13" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="14" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2819,28 +2869,28 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="15" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="16" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2849,18 +2899,18 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+    <row r="17" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
@@ -2868,14 +2918,14 @@
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="19" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
@@ -2890,7 +2940,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="20" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
@@ -2901,7 +2951,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="21" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2910,7 +2960,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="22" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2919,22 +2969,22 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="23" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="24" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2943,33 +2993,33 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A25" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+    <row r="25" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="26" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="27" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>3</v>
       </c>
@@ -2984,35 +3034,35 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="29" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="30" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3021,9 +3071,9 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="31" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>5</v>
@@ -3036,7 +3086,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="32" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3045,18 +3095,18 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A33" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="14"/>
+    <row r="33" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="23"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="34" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
@@ -3069,7 +3119,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>3</v>
       </c>
@@ -3082,7 +3132,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="36" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>4</v>
       </c>
@@ -3093,7 +3143,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="37" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="2"/>
@@ -3102,7 +3152,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="38" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="2"/>
@@ -3111,12 +3161,12 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="39" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3124,7 +3174,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="40" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3133,33 +3183,33 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A41" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+    <row r="41" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="42" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="43" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>3</v>
       </c>
@@ -3174,7 +3224,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="44" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>4</v>
       </c>
@@ -3185,7 +3235,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="45" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3194,10 +3244,10 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="34" thickTop="1" thickBot="1">
+    <row r="46" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="2"/>
@@ -3205,22 +3255,22 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="47" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="48" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3229,35 +3279,35 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A49" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+    <row r="49" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="50" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="51" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -3274,7 +3324,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="52" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>4</v>
       </c>
@@ -3285,18 +3335,18 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="53" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="54" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -3305,15 +3355,15 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="55" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>5</v>
@@ -3322,7 +3372,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="56" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3331,33 +3381,33 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A57" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
+    <row r="57" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="58" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="59" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>3</v>
       </c>
@@ -3372,7 +3422,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="60" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>4</v>
       </c>
@@ -3383,18 +3433,18 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="61" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" ht="18" thickTop="1" thickBot="1">
+    <row r="62" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -3402,13 +3452,21 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" ht="18" thickTop="1" thickBot="1">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>5</v>
@@ -3417,8 +3475,16 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" ht="18" thickTop="1" thickBot="1">
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3426,19 +3492,35 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A65" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:7" ht="18" thickTop="1" thickBot="1">
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="11" t="s">
         <v>1</v>
       </c>
@@ -3446,22 +3528,34 @@
         <v>8</v>
       </c>
       <c r="C66" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="18" thickTop="1" thickBot="1">
+      <c r="H66" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="11" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3577,16 @@
       <c r="G67" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="18" thickTop="1" thickBot="1">
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="11" t="s">
         <v>4</v>
       </c>
@@ -3494,19 +3596,43 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:7" ht="18" thickTop="1" thickBot="1">
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
+      <c r="E69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G69" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="18" thickTop="1" thickBot="1">
+        <v>54</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -3514,22 +3640,30 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:7" ht="18" thickTop="1" thickBot="1">
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>5</v>
@@ -3537,13 +3671,150 @@
       <c r="G71" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" thickTop="1"/>
+      <c r="H71" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="32"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="31"/>
+    </row>
+    <row r="77" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
+    </row>
+    <row r="78" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
+    </row>
+    <row r="79" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="32"/>
+    </row>
+    <row r="82" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="31"/>
+    </row>
+    <row r="85" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="31"/>
+      <c r="B85" s="31"/>
+    </row>
+    <row r="86" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="31"/>
+      <c r="B86" s="31"/>
+    </row>
+    <row r="87" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A65:I65"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A65:G65"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A17:C17"/>
@@ -3552,6 +3823,7 @@
     <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3564,29 +3836,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="14"/>
+    <row r="1" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="23"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="2" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3595,54 +3873,54 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="4" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="5" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="6" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="7" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="8" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="14"/>
+    <row r="9" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="23"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="34" thickTop="1" thickBot="1">
+    <row r="10" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="11" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -3651,59 +3929,60 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="12" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="13" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="14" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="15" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="16" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="A17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" ht="34" thickTop="1" thickBot="1">
+    <row r="17" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" thickTop="1" thickBot="1">
+    </row>
+    <row r="19" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
@@ -3717,7 +3996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickTop="1" thickBot="1">
+    <row r="20" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
@@ -3725,56 +4004,56 @@
       <c r="C20" s="6"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" ht="18" thickTop="1" thickBot="1">
+    <row r="21" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" thickTop="1" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="18" thickTop="1" thickBot="1">
+    <row r="23" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" thickTop="1" thickBot="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="34" thickTop="1" thickBot="1">
-      <c r="A25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="2"/>
+    <row r="25" spans="1:4" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="30"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="A26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>108</v>
+    <row r="26" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="18" thickTop="1" thickBot="1">
+    <row r="27" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -3783,54 +4062,54 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="18" thickTop="1" thickBot="1">
+    <row r="28" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="18" thickTop="1" thickBot="1">
+    <row r="29" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="18" thickTop="1" thickBot="1">
+    <row r="30" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="18" thickTop="1" thickBot="1">
+    <row r="31" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="18" thickTop="1" thickBot="1">
+    <row r="32" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A33" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="14"/>
+    <row r="33" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="23"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="34" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="35" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>3</v>
       </c>
@@ -3839,39 +4118,40 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="36" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="37" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="38" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="39" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" ht="15" thickTop="1"/>
+    <row r="40" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Documentos/Rubrica1/ModeloLogico.xlsx
+++ b/Documentos/Rubrica1/ModeloLogico.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezequiel\Documents\Drive\Proyectos\BDI\BD1Project2019\Documentos\Rubrica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E49B76-8A8C-40FB-92AD-2F12949227BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" tabRatio="647" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="647" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMPLEADOS" sheetId="30" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="113">
   <si>
     <t>JUEGO</t>
   </si>
@@ -94,9 +95,6 @@
     <t>LINEA</t>
   </si>
   <si>
-    <t>(Familiar,Institucional</t>
-  </si>
-  <si>
     <t>COLOR</t>
   </si>
   <si>
@@ -340,9 +338,6 @@
     <t>monto_total</t>
   </si>
   <si>
-    <t>factura</t>
-  </si>
-  <si>
     <t>FK_Pedido</t>
   </si>
   <si>
@@ -371,12 +366,15 @@
   </si>
   <si>
     <t>FK5</t>
+  </si>
+  <si>
+    <t>check('F','I')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -504,15 +502,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -608,16 +597,31 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,14 +633,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,52 +642,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -967,32 +956,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="3" width="23" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="50.42578125" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1002,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1075,10 +1068,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>5</v>
@@ -1098,35 +1091,35 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="A9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1153,18 +1146,18 @@
     </row>
     <row r="12" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1180,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
@@ -1200,10 +1193,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>5</v>
@@ -1228,12 +1221,12 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
+      <c r="A17" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
@@ -1244,13 +1237,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
@@ -1277,14 +1270,14 @@
     </row>
     <row r="20" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
@@ -1320,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>5</v>
@@ -1344,10 +1337,10 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="20"/>
+      <c r="A25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="24"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1357,10 +1350,10 @@
     </row>
     <row r="26" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1420,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1440,13 +1433,13 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="A33" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="4"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1456,16 +1449,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1521,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>5</v>
@@ -1546,11 +1539,11 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
+      <c r="A41" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1562,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1612,7 +1605,7 @@
     <row r="46" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -1626,10 +1619,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1648,10 +1641,10 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="20"/>
+      <c r="A49" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="24"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1664,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1724,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1744,10 +1737,10 @@
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" s="22"/>
+      <c r="A57" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="27"/>
       <c r="C57" s="8"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1757,10 +1750,10 @@
     </row>
     <row r="58" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1783,10 +1776,10 @@
     </row>
     <row r="60" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -1840,10 +1833,10 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="20"/>
+      <c r="A65" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="24"/>
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -1853,10 +1846,10 @@
     </row>
     <row r="66" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -1881,10 +1874,10 @@
     </row>
     <row r="68" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -1942,41 +1935,41 @@
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
+      <c r="A73" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
     </row>
     <row r="74" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D74" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="F74" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="G74" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="H74" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2036,10 +2029,10 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="H78" s="6"/>
     </row>
@@ -2051,40 +2044,38 @@
         <v>5</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="G79" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
+    <row r="80" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -2092,15 +2083,11 @@
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A82" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="25"/>
+      <c r="C82" s="24"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -2109,13 +2096,13 @@
     </row>
     <row r="83" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2125,10 +2112,14 @@
     </row>
     <row r="84" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -2136,7 +2127,9 @@
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6"/>
+      <c r="A85" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="2"/>
@@ -2156,153 +2149,156 @@
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="20"/>
-    </row>
+    <row r="88" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="A90" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="24"/>
     </row>
     <row r="91" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C91" s="6" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6"/>
+      <c r="A93" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
+      <c r="C94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="95" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="20"/>
-    </row>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="A98" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="24"/>
     </row>
     <row r="99" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-    </row>
-    <row r="101" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2316,208 +2312,211 @@
       <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="4"/>
-    </row>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="A106" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B106" s="25"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-    </row>
-    <row r="109" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="7"/>
       <c r="B109" s="7"/>
-      <c r="C109" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="C109" s="7"/>
     </row>
     <row r="110" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
+      <c r="C110" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="111" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-    </row>
-    <row r="113" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B113" s="20"/>
-    </row>
-    <row r="114" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+    </row>
+    <row r="114" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="24"/>
+    </row>
+    <row r="115" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="B115" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="7"/>
-    </row>
-    <row r="117" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="7"/>
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B121" s="20"/>
-    </row>
-    <row r="122" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
+    <row r="119" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+    </row>
+    <row r="120" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B122" s="24"/>
+    </row>
+    <row r="123" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="B123" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B124" s="6"/>
-    </row>
-    <row r="125" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="6"/>
       <c r="B125" s="6"/>
     </row>
-    <row r="126" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
     </row>
-    <row r="127" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B129" s="20"/>
-    </row>
+    <row r="127" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+    </row>
+    <row r="128" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="A130" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B130" s="24"/>
     </row>
     <row r="131" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="6"/>
       <c r="B133" s="6"/>
     </row>
     <row r="134" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2525,101 +2524,63 @@
       <c r="B134" s="6"/>
     </row>
     <row r="135" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="20"/>
-      <c r="F137" s="15"/>
-    </row>
-    <row r="138" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-    </row>
-    <row r="143" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+    </row>
+    <row r="136" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="F138" s="15"/>
+    </row>
+    <row r="139" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
@@ -2629,15 +2590,33 @@
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
     </row>
-    <row r="155" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="17"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="15"/>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="15"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+    </row>
+    <row r="156" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="17">
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A106:C106"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A9:F9"/>
@@ -2645,21 +2624,9 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A65:B65"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="43" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2669,14 +2636,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
@@ -2688,11 +2658,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2703,10 +2673,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2765,7 +2735,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2782,34 +2752,34 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="A9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -2834,15 +2804,15 @@
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
@@ -2871,7 +2841,7 @@
     </row>
     <row r="15" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>5</v>
@@ -2880,13 +2850,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -2900,11 +2870,11 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2974,10 +2944,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2994,11 +2964,11 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="A25" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -3012,7 +2982,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -3036,13 +3006,13 @@
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -3096,10 +3066,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="23"/>
+      <c r="A33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="28"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3166,7 +3136,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3184,11 +3154,11 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3244,10 +3214,10 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="2"/>
@@ -3260,10 +3230,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -3280,12 +3250,12 @@
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3360,10 +3330,10 @@
         <v>5</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>5</v>
@@ -3382,11 +3352,11 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -3466,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>5</v>
@@ -3502,17 +3472,17 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -3534,19 +3504,19 @@
         <v>7</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H66" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I66" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3617,13 +3587,13 @@
         <v>12</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H69" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I69" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3657,10 +3627,10 @@
         <v>13</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>5</v>
@@ -3695,10 +3665,10 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B73" s="32"/>
+      <c r="A73" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="29"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3709,10 +3679,10 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H74" s="1"/>
@@ -3725,10 +3695,10 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="31" t="s">
+      <c r="A75" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H75" s="1"/>
@@ -3741,89 +3711,89 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="31"/>
+      <c r="B76" s="18"/>
     </row>
     <row r="77" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
     </row>
     <row r="78" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
     </row>
     <row r="79" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>81</v>
+      <c r="A79" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81" s="32"/>
+      <c r="A81" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="29"/>
     </row>
     <row r="82" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="31" t="s">
+      <c r="A83" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="31"/>
+      <c r="B84" s="18"/>
     </row>
     <row r="85" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
     </row>
     <row r="86" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
     </row>
     <row r="87" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>81</v>
+      <c r="A87" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A65:I65"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A41:C41"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="40" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3833,14 +3803,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -3849,10 +3822,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="23"/>
+      <c r="A1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="28"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3860,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -3895,7 +3868,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -3905,18 +3878,18 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="23"/>
+      <c r="A9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="28"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3948,10 +3921,10 @@
     </row>
     <row r="15" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -3961,25 +3934,25 @@
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4023,13 +3996,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4038,18 +4011,18 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="30"/>
+      <c r="A25" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="32"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>105</v>
+      <c r="A26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -4081,10 +4054,10 @@
     </row>
     <row r="31" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -4094,10 +4067,10 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="23"/>
+      <c r="A33" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="28"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4105,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -4140,7 +4113,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2"/>
     </row>
@@ -4153,8 +4126,8 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A17:D17"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="86" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documentos/Rubrica1/ModeloLogico.xlsx
+++ b/Documentos/Rubrica1/ModeloLogico.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezequiel\Documents\Drive\Proyectos\BDI\BD1Project2019\Documentos\Rubrica1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E49B76-8A8C-40FB-92AD-2F12949227BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="647" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="647" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EMPLEADOS" sheetId="30" r:id="rId1"/>
     <sheet name="CATALOGO" sheetId="28" r:id="rId2"/>
     <sheet name="VENTAS" sheetId="31" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="118">
   <si>
     <t>JUEGO</t>
   </si>
@@ -56,9 +55,6 @@
     <t>Tamano</t>
   </si>
   <si>
-    <t>Uso_Micro</t>
-  </si>
-  <si>
     <t>id_Motivo</t>
   </si>
   <si>
@@ -80,30 +76,9 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>id_Categoria</t>
-  </si>
-  <si>
-    <t>CATEGORIA</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
-    <t>id_Linea</t>
-  </si>
-  <si>
-    <t>LINEA</t>
-  </si>
-  <si>
-    <t>COLOR</t>
-  </si>
-  <si>
-    <t>M_C</t>
-  </si>
-  <si>
-    <t>id_Color</t>
-  </si>
-  <si>
     <t>PK1</t>
   </si>
   <si>
@@ -287,9 +262,6 @@
     <t>cant_personas</t>
   </si>
   <si>
-    <t>precio</t>
-  </si>
-  <si>
     <t>inflacion</t>
   </si>
   <si>
@@ -344,37 +316,79 @@
     <t>desc</t>
   </si>
   <si>
-    <t>FORMA</t>
-  </si>
-  <si>
-    <t>id_Forma</t>
-  </si>
-  <si>
-    <t>id_Material</t>
-  </si>
-  <si>
-    <t>MATERIAL</t>
-  </si>
-  <si>
     <t>id_Coleccion</t>
   </si>
   <si>
-    <t>FK4</t>
-  </si>
-  <si>
     <t>id_Juego</t>
   </si>
   <si>
-    <t>FK5</t>
-  </si>
-  <si>
-    <t>check('F','I')</t>
+    <t>precio_Bs</t>
+  </si>
+  <si>
+    <t>C_M</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Check(Clas_ele, Moderna, Country</t>
+  </si>
+  <si>
+    <t>Linea</t>
+  </si>
+  <si>
+    <t>Check(F,I)</t>
+  </si>
+  <si>
+    <t>id_Molde</t>
+  </si>
+  <si>
+    <t>MOLDE</t>
+  </si>
+  <si>
+    <t>Tipo_Plato</t>
+  </si>
+  <si>
+    <t>Forma</t>
+  </si>
+  <si>
+    <t>Tipo_Taza</t>
+  </si>
+  <si>
+    <t>Volumen</t>
+  </si>
+  <si>
+    <t>Cant_Pers</t>
+  </si>
+  <si>
+    <t>Check(Llano,Hondo,Postre,Presenta,Tazamoka,Pasta)</t>
+  </si>
+  <si>
+    <t>Check(Redondo, ovalado, cuadrado, rectangular</t>
+  </si>
+  <si>
+    <t>Check(CafesSp, CafeCp,TeSp,TeCp,MokaSp,MokaCp)</t>
+  </si>
+  <si>
+    <t>Check(2,6)</t>
+  </si>
+  <si>
+    <t>Check(Jarra,plato,tetera,azucarero,lechera,cazuela)</t>
+  </si>
+  <si>
+    <t>Check(2,4,6)</t>
+  </si>
+  <si>
+    <t>J_P</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +460,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -519,6 +533,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -555,7 +624,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -592,19 +661,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,70 +705,82 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -956,7 +1058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -966,7 +1068,7 @@
       <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
@@ -979,13 +1081,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -995,16 +1097,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1044,7 +1146,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1068,10 +1170,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>5</v>
@@ -1091,35 +1193,35 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>52</v>
+      <c r="A9" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1146,18 +1248,18 @@
     </row>
     <row r="12" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1167,13 +1269,13 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
@@ -1193,10 +1295,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>5</v>
@@ -1221,12 +1323,12 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="23" t="s">
-        <v>51</v>
+      <c r="A17" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
@@ -1237,13 +1339,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
@@ -1270,14 +1372,14 @@
     </row>
     <row r="20" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
@@ -1288,10 +1390,10 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
@@ -1313,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>5</v>
@@ -1337,10 +1439,10 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="24"/>
+      <c r="A25" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="22"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1350,10 +1452,10 @@
     </row>
     <row r="26" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1413,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1433,13 +1535,13 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
-        <v>47</v>
+      <c r="A33" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="24"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="4"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1449,16 +1551,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1492,10 +1594,10 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1514,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>5</v>
@@ -1539,11 +1641,11 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
-        <v>46</v>
+      <c r="A41" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="B41" s="25"/>
-      <c r="C41" s="24"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1555,10 +1657,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1605,7 +1707,7 @@
     <row r="46" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -1619,10 +1721,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1641,10 +1743,10 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="24"/>
+      <c r="A49" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="22"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1657,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1717,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1737,10 +1839,10 @@
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="27"/>
+      <c r="A57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="24"/>
       <c r="C57" s="8"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1750,10 +1852,10 @@
     </row>
     <row r="58" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1776,10 +1878,10 @@
     </row>
     <row r="60" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -1789,10 +1891,10 @@
     </row>
     <row r="61" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -1833,10 +1935,10 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="24"/>
+      <c r="A65" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="22"/>
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -1846,10 +1948,10 @@
     </row>
     <row r="66" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -1874,10 +1976,10 @@
     </row>
     <row r="68" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -1888,10 +1990,10 @@
     </row>
     <row r="69" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -1935,41 +2037,41 @@
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
+      <c r="A73" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
     </row>
     <row r="74" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2019,7 +2121,7 @@
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2029,10 +2131,10 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H78" s="6"/>
     </row>
@@ -2044,19 +2146,19 @@
         <v>5</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>5</v>
@@ -2083,11 +2185,11 @@
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
-        <v>39</v>
+      <c r="A82" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="B82" s="25"/>
-      <c r="C82" s="24"/>
+      <c r="C82" s="22"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -2099,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2163,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2176,25 +2278,25 @@
     </row>
     <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="23" t="s">
-        <v>87</v>
+      <c r="A90" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
-      <c r="D90" s="24"/>
+      <c r="D90" s="22"/>
     </row>
     <row r="91" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2211,24 +2313,24 @@
     </row>
     <row r="93" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2239,10 +2341,10 @@
     </row>
     <row r="96" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>5</v>
@@ -2253,29 +2355,29 @@
     </row>
     <row r="97" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="23" t="s">
-        <v>89</v>
+      <c r="A98" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
-      <c r="E98" s="24"/>
+      <c r="E98" s="22"/>
     </row>
     <row r="99" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2337,11 +2439,11 @@
     </row>
     <row r="105" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="23" t="s">
-        <v>94</v>
+      <c r="A106" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="B106" s="25"/>
-      <c r="C106" s="24"/>
+      <c r="C106" s="22"/>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2349,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2377,7 +2479,7 @@
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2402,17 +2504,17 @@
       <c r="C113" s="13"/>
     </row>
     <row r="114" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B114" s="24"/>
+      <c r="A114" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" s="22"/>
     </row>
     <row r="115" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2442,22 +2544,22 @@
         <v>5</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B122" s="24"/>
+      <c r="A122" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B122" s="22"/>
     </row>
     <row r="123" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2487,22 +2589,22 @@
         <v>5</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B130" s="24"/>
+      <c r="A130" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B130" s="22"/>
     </row>
     <row r="131" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2532,7 +2634,7 @@
         <v>5</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2541,7 +2643,7 @@
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="F138" s="15"/>
+      <c r="F138" s="14"/>
     </row>
     <row r="139" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
@@ -2580,33 +2682,40 @@
       <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
+      <c r="A145" s="14"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="15"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
+      <c r="A146" s="14"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
+      <c r="A147" s="14"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
     </row>
     <row r="156" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="15"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A122:B122"/>
     <mergeCell ref="A130:B130"/>
     <mergeCell ref="A65:B65"/>
@@ -2617,13 +2726,6 @@
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -2636,17 +2738,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
@@ -2657,13 +2759,13 @@
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2673,12 +2775,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2690,10 +2794,10 @@
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2703,8 +2807,8 @@
         <v>4</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2712,17 +2816,19 @@
     <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2734,10 +2840,12 @@
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2752,34 +2860,34 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="A9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -2804,15 +2912,15 @@
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
@@ -2822,10 +2930,10 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
@@ -2841,7 +2949,7 @@
     </row>
     <row r="15" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>5</v>
@@ -2850,13 +2958,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -2870,12 +2978,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2890,7 +2998,9 @@
       <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2905,7 +3015,7 @@
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2916,7 +3026,7 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2925,7 +3035,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2934,7 +3044,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2944,12 +3054,14 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2964,11 +3076,11 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2979,10 +3091,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -3006,13 +3118,13 @@
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -3022,10 +3134,10 @@
     <row r="29" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -3065,365 +3177,444 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+    <row r="33" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>117</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+    <row r="35" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="B36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="18"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+    <row r="37" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+    <row r="38" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>5</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>80</v>
-      </c>
+    <row r="39" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+    <row r="40" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="2"/>
+    <row r="41" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="2"/>
+    <row r="42" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2"/>
+    <row r="43" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="2"/>
+    <row r="44" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="2"/>
+      <c r="C45" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="B46" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
     </row>
     <row r="49" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="A49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+      <c r="A54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B57" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
+      <c r="C57" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:15" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="19"/>
+      <c r="B60" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3431,22 +3622,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+    <row r="63" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -3454,16 +3630,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+    <row r="64" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3471,18 +3638,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
+    <row r="65" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -3490,34 +3646,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>110</v>
-      </c>
+    <row r="66" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -3525,30 +3654,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
+    <row r="67" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -3556,18 +3662,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
+    <row r="68" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3575,26 +3670,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>111</v>
-      </c>
+    <row r="69" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -3602,16 +3678,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
+    <row r="70" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3619,34 +3686,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H71" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="71" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -3654,9 +3694,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+    <row r="72" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -3664,13 +3702,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B73" s="29"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+    <row r="73" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -3678,15 +3710,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+    <row r="74" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -3694,15 +3718,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+    <row r="75" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -3710,87 +3726,57 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="18"/>
-    </row>
-    <row r="77" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-    </row>
-    <row r="78" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-    </row>
-    <row r="79" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" s="29"/>
-    </row>
-    <row r="82" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="18"/>
-    </row>
-    <row r="85" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-    </row>
-    <row r="86" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-    </row>
-    <row r="87" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+    </row>
+    <row r="81" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
+    </row>
+    <row r="82" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+    </row>
+    <row r="83" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="M83" t="e">
+        <f>+A43:M83A62:M57:MA83</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+    </row>
+    <row r="85" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+    </row>
+    <row r="86" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+    </row>
+    <row r="87" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A40:D40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3803,17 +3789,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -3822,10 +3808,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="28"/>
+      <c r="A1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="26"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3833,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -3868,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -3878,18 +3864,18 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="28"/>
+      <c r="A9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="26"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3921,10 +3907,10 @@
     </row>
     <row r="15" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -3934,25 +3920,25 @@
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="A17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3982,7 +3968,7 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3996,13 +3982,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4011,18 +3997,18 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="32"/>
+      <c r="A25" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="30"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>103</v>
+      <c r="A26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -4054,10 +4040,10 @@
     </row>
     <row r="31" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -4067,10 +4053,10 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="28"/>
+      <c r="A33" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="26"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4078,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -4113,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C39" s="2"/>
     </row>

--- a/Documentos/Rubrica1/ModeloLogico.xlsx
+++ b/Documentos/Rubrica1/ModeloLogico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="118">
   <si>
     <t>JUEGO</t>
   </si>
@@ -679,36 +679,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -720,14 +690,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -738,14 +735,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -1193,14 +1193,14 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
@@ -1323,12 +1323,12 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
@@ -1439,10 +1439,10 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1535,13 +1535,13 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="22"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="4"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1641,11 +1641,11 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="22"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1743,10 +1743,10 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="22"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1839,10 +1839,10 @@
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="8"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1935,10 +1935,10 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="22"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2037,16 +2037,16 @@
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
     </row>
     <row r="74" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
@@ -2185,11 +2185,11 @@
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="22"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -2278,12 +2278,12 @@
     </row>
     <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="22"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="31"/>
     </row>
     <row r="91" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
@@ -2355,13 +2355,13 @@
     </row>
     <row r="97" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="22"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="31"/>
     </row>
     <row r="99" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
@@ -2439,11 +2439,11 @@
     </row>
     <row r="105" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B106" s="25"/>
-      <c r="C106" s="22"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="31"/>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2504,10 +2504,10 @@
       <c r="C113" s="13"/>
     </row>
     <row r="114" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B114" s="22"/>
+      <c r="B114" s="31"/>
     </row>
     <row r="115" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
@@ -2549,10 +2549,10 @@
     </row>
     <row r="121" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="21" t="s">
+      <c r="A122" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B122" s="22"/>
+      <c r="B122" s="31"/>
     </row>
     <row r="123" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
@@ -2594,10 +2594,10 @@
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B130" s="22"/>
+      <c r="B130" s="31"/>
     </row>
     <row r="131" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
@@ -2709,13 +2709,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A122:B122"/>
     <mergeCell ref="A130:B130"/>
     <mergeCell ref="A65:B65"/>
@@ -2726,6 +2719,13 @@
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -2744,8 +2744,8 @@
   </sheetPr>
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,12 +2760,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2777,7 +2777,7 @@
       <c r="B2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -2794,10 +2794,10 @@
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32"/>
+      <c r="C3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="22"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2807,8 +2807,8 @@
         <v>4</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2816,8 +2816,8 @@
     <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2827,8 +2827,8 @@
       <c r="B6" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2840,7 +2840,7 @@
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -2860,14 +2860,14 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2978,12 +2978,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3076,11 +3076,11 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -3178,12 +3178,12 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="22"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3224,13 +3224,13 @@
     </row>
     <row r="36" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="2"/>
@@ -3239,8 +3239,12 @@
     </row>
     <row r="37" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="D37" s="18"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3273,12 +3277,12 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3383,17 +3387,17 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
@@ -3439,15 +3443,9 @@
       <c r="A51" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="20"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -3456,9 +3454,15 @@
     </row>
     <row r="52" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="B52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="E52" s="20"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -3502,16 +3506,16 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="22"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="31"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3727,56 +3731,56 @@
       <c r="O75" s="1"/>
     </row>
     <row r="79" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
     </row>
     <row r="81" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
     </row>
     <row r="82" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
       <c r="M83" t="e">
         <f>+A43:M83A62:M57:MA83</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
     </row>
     <row r="85" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
     </row>
     <row r="87" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A56:H56"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A40:D40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3808,10 +3812,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3864,10 +3868,10 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3920,12 +3924,12 @@
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -3997,10 +4001,10 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4053,10 +4057,10 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="26"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Documentos/Rubrica1/ModeloLogico.xlsx
+++ b/Documentos/Rubrica1/ModeloLogico.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezequiel\Documents\Drive\Proyectos\BDI\BD1Project2019\Documentos\Rubrica1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\BD1Project2019\Documentos\Rubrica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D82288-BAA2-43F6-9800-C629A20E3D71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="647" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="EMPLEADOS" sheetId="32" r:id="rId1"/>
+    <sheet name="EMPLEADOS" sheetId="30" r:id="rId1"/>
     <sheet name="CATALOGO" sheetId="28" r:id="rId2"/>
     <sheet name="VENTAS" sheetId="31" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="117">
   <si>
     <t>JUEGO</t>
   </si>
@@ -61,9 +55,6 @@
     <t>Tamano</t>
   </si>
   <si>
-    <t>id_Motivo</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
@@ -88,21 +79,12 @@
     <t>PK1</t>
   </si>
   <si>
-    <t>MOTIVO</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
-    <t>fecha_Pedido</t>
-  </si>
-  <si>
     <t>id_Pieza</t>
   </si>
   <si>
-    <t>fecha_Fin</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -145,18 +127,39 @@
     <t>di</t>
   </si>
   <si>
+    <t>E_P</t>
+  </si>
+  <si>
+    <t>PROFESION</t>
+  </si>
+  <si>
+    <t>AMONESTACION</t>
+  </si>
+  <si>
+    <t>FALTA</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
     <t>REUNION</t>
   </si>
   <si>
     <t xml:space="preserve">id </t>
   </si>
   <si>
+    <t>ASISTENCIA</t>
+  </si>
+  <si>
     <t>EMPLEO</t>
   </si>
   <si>
     <t>FK3</t>
   </si>
   <si>
+    <t>HIST_SALARIO</t>
+  </si>
+  <si>
     <t>fecha_inicio</t>
   </si>
   <si>
@@ -169,6 +172,9 @@
     <t>HIST_PIEZA</t>
   </si>
   <si>
+    <t>id_cond_salud</t>
+  </si>
+  <si>
     <t>id_empleado</t>
   </si>
   <si>
@@ -184,6 +190,9 @@
     <t>tipo_sangre</t>
   </si>
   <si>
+    <t>id_pais</t>
+  </si>
+  <si>
     <t>check('M','F','T')</t>
   </si>
   <si>
@@ -196,6 +205,15 @@
     <t>fecha_Inicio</t>
   </si>
   <si>
+    <t>id_cargo</t>
+  </si>
+  <si>
+    <t>id_departamento</t>
+  </si>
+  <si>
+    <t>detalle</t>
+  </si>
+  <si>
     <t>id_reunion</t>
   </si>
   <si>
@@ -205,9 +223,27 @@
     <t>descripcion</t>
   </si>
   <si>
+    <t>horas_faltantes</t>
+  </si>
+  <si>
+    <t>id_asistencia</t>
+  </si>
+  <si>
+    <t>id_amonestacion</t>
+  </si>
+  <si>
+    <t>salario</t>
+  </si>
+  <si>
     <t>varchar2(20)</t>
   </si>
   <si>
+    <t>id_profesion</t>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+  </si>
+  <si>
     <t>varchar2(1)</t>
   </si>
   <si>
@@ -217,6 +253,45 @@
     <t>inflacion</t>
   </si>
   <si>
+    <t>HIST_HORARIO</t>
+  </si>
+  <si>
+    <t>id_horario</t>
+  </si>
+  <si>
+    <t>HORARIO</t>
+  </si>
+  <si>
+    <t>hora_inicio_semana</t>
+  </si>
+  <si>
+    <t>hora_fin_semana</t>
+  </si>
+  <si>
+    <t>hora_inicio_sabado</t>
+  </si>
+  <si>
+    <t>hora_fin_sabado</t>
+  </si>
+  <si>
+    <t>TIEMPO_EXTRA</t>
+  </si>
+  <si>
+    <t>horas_extras</t>
+  </si>
+  <si>
+    <t>CARGO</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>BONO</t>
+  </si>
+  <si>
+    <t>check('L','M','X','J','V','S','D')</t>
+  </si>
+  <si>
     <t>fecha_emision</t>
   </si>
   <si>
@@ -298,110 +373,20 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>sueldo</t>
-  </si>
-  <si>
-    <t>cargo</t>
-  </si>
-  <si>
-    <t>id_organigrama</t>
-  </si>
-  <si>
-    <t>check('S','G','O','E','M','I')</t>
-  </si>
-  <si>
-    <t>INASISTENCIA</t>
-  </si>
-  <si>
-    <t>minuta</t>
-  </si>
-  <si>
-    <t>id_supervisor</t>
-  </si>
-  <si>
-    <t>id_cond</t>
-  </si>
-  <si>
-    <t>expediente</t>
-  </si>
-  <si>
-    <t>apellido2</t>
-  </si>
-  <si>
-    <t>titulo</t>
-  </si>
-  <si>
-    <t>nombre2</t>
-  </si>
-  <si>
-    <t>check('B','Q','M','P','I','G')</t>
-  </si>
-  <si>
-    <t>TURNOS_HIST</t>
-  </si>
-  <si>
-    <t>turno</t>
-  </si>
-  <si>
-    <t>check('1','2','3')</t>
-  </si>
-  <si>
-    <t>ORGANIGRAMA</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>nivel</t>
-  </si>
-  <si>
-    <t>id_superior</t>
-  </si>
-  <si>
-    <t>check('G','S','D','A')</t>
-  </si>
-  <si>
-    <t>check('1','2','3','4')</t>
-  </si>
-  <si>
-    <t>DETALLE_EXP</t>
-  </si>
-  <si>
-    <t>motivo</t>
-  </si>
-  <si>
-    <t>monto_bono</t>
-  </si>
-  <si>
-    <t>horas_extrar</t>
-  </si>
-  <si>
-    <t>retraso</t>
-  </si>
-  <si>
-    <t>check('IN','BM','BA','AM','RE','HE')</t>
-  </si>
-  <si>
-    <t>varchar2(2)</t>
-  </si>
-  <si>
-    <t>TELEFONO</t>
-  </si>
-  <si>
-    <t>cod</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>id_cliente</t>
+    <t>COL_MOT</t>
+  </si>
+  <si>
+    <t>Check(Color, Motivo)</t>
+  </si>
+  <si>
+    <t>id_Col_Mot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,12 +430,23 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -461,7 +457,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -591,11 +587,67 @@
     </border>
     <border>
       <left style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -636,7 +688,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -654,6 +706,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -670,9 +725,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -700,25 +760,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -745,73 +820,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1089,218 +1155,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D56FF0-47CD-4029-A377-64F485AA8C8E}">
-  <dimension ref="A1:K81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="46.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="27"/>
+      <c r="A1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="E2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="25"/>
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="25"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
+    <row r="9" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
+    <row r="10" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
+    <row r="11" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
+    <row r="12" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
@@ -1308,107 +1413,111 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="A17" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>93</v>
+      <c r="A18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="25" t="s">
+    <row r="19" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25" t="s">
-        <v>16</v>
+    <row r="20" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25" t="s">
+    <row r="21" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+    <row r="22" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="25" t="s">
+      <c r="A23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="2"/>
@@ -1417,94 +1526,100 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="3"/>
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="A27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="3"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="A31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
@@ -1516,366 +1631,316 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+    <row r="33" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-    </row>
-    <row r="34" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-    </row>
-    <row r="36" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="25"/>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K39" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+    <row r="42" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>55</v>
-      </c>
+    <row r="43" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="25"/>
+    <row r="44" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+    <row r="45" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+    <row r="46" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+    <row r="47" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>54</v>
-      </c>
+    <row r="48" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
     <row r="50" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="27"/>
+      <c r="A50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="A51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="25"/>
+      <c r="A52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="25"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="25"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="A55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>22</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="46"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="33"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1883,357 +1948,904 @@
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
+      <c r="A58" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="31"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+    </row>
+    <row r="74" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B74" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="34"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25" t="s">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="31"/>
+    </row>
+    <row r="91" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="25"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="25" t="s">
+      <c r="D94" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="31"/>
+    </row>
+    <row r="99" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B99" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="34"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+    </row>
+    <row r="110" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+    </row>
+    <row r="114" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" s="31"/>
+    </row>
+    <row r="115" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="7"/>
+    </row>
+    <row r="118" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+    </row>
+    <row r="119" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+    </row>
+    <row r="120" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" s="31"/>
+    </row>
+    <row r="123" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="6"/>
+    </row>
+    <row r="126" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+    </row>
+    <row r="127" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+    </row>
+    <row r="128" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B130" s="31"/>
+    </row>
+    <row r="131" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="6"/>
+    </row>
+    <row r="134" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+    </row>
+    <row r="135" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+    </row>
+    <row r="136" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G67" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="41"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="41"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-    </row>
-    <row r="71" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-    </row>
-    <row r="75" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-    </row>
-    <row r="77" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-    </row>
-    <row r="78" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-    </row>
-    <row r="80" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="F138" s="14"/>
+    </row>
+    <row r="139" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="14"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="14"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="14"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+    </row>
+    <row r="156" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="17"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A106:C106"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="43" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
@@ -2245,91 +2857,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>14</v>
+      <c r="B2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="18"/>
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="22"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>56</v>
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2345,112 +2957,102 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="A9" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B15" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2463,12 +3065,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27"/>
+      <c r="A17" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2481,10 +3083,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="14" t="s">
         <v>14</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2500,7 +3102,7 @@
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2511,7 +3113,7 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="14"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2520,16 +3122,18 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="18"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2539,13 +3143,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2561,11 +3165,11 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2576,10 +3180,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2603,13 +3207,13 @@
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2619,10 +3223,10 @@
     <row r="29" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2663,44 +3267,44 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="27"/>
+      <c r="A33" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>86</v>
+      <c r="B34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="14" t="s">
+      <c r="A35" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="2"/>
@@ -2708,44 +3312,44 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="14"/>
+      <c r="A36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="18"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="14" t="s">
+      <c r="A38" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="2"/>
@@ -2762,44 +3366,44 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="A40" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>70</v>
+      <c r="B41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="14" t="s">
+      <c r="A42" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="2"/>
@@ -2807,33 +3411,33 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="14"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="14"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>71</v>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2842,17 +3446,17 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>56</v>
+      <c r="A46" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2872,33 +3476,33 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>14</v>
+      <c r="B49" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -2906,80 +3510,80 @@
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="16"/>
+      <c r="A50" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="20"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="16"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="16"/>
+      <c r="D52" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="20"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="16"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="20"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>56</v>
+      <c r="A54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -2991,115 +3595,115 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="27"/>
+      <c r="A56" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="31"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="14" t="s">
+      <c r="B57" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>78</v>
+      <c r="F57" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
+      <c r="A58" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:15" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16" t="s">
-        <v>82</v>
+      <c r="A60" s="19"/>
+      <c r="B60" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="14" t="s">
+      <c r="A61" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3216,44 +3820,44 @@
       <c r="O75" s="1"/>
     </row>
     <row r="79" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
     </row>
     <row r="81" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
       <c r="M83" t="e">
         <f>+A43:M83A62:M57:MA83</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
     </row>
     <row r="85" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
     </row>
     <row r="87" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3264,8 +3868,8 @@
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3278,17 +3882,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -3297,10 +3901,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="29"/>
+      <c r="A1" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3308,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -3343,7 +3947,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -3353,18 +3957,18 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="29"/>
+      <c r="A9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="35"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>26</v>
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3396,10 +4000,10 @@
     </row>
     <row r="15" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -3409,25 +4013,25 @@
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="A17" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>62</v>
+      <c r="B18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3440,7 +4044,7 @@
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3450,34 +4054,34 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="11" t="s">
-        <v>10</v>
+      <c r="D21" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>22</v>
+      <c r="D23" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3486,53 +4090,53 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="37"/>
+      <c r="A25" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="46"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>54</v>
+      <c r="B31" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -3542,10 +4146,10 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="29"/>
+      <c r="A33" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="35"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3553,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -3588,7 +4192,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C39" s="2"/>
     </row>
